--- a/ner/specs/persons.xlsx
+++ b/ner/specs/persons.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/me/gitlab.huc.knaw.nl/suriano/letters/datasource/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5FB42A-074F-6840-AA86-72656D78E5C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5C709E-FB3B-0446-9820-1A79687F5514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="520" windowWidth="33580" windowHeight="37260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bio" sheetId="1" r:id="rId1"/>
@@ -7407,9 +7407,6 @@
     <t>In 1616, she removed her son Frederick Ulrich from power and resumed regency until 1622</t>
   </si>
   <si>
-    <t>madre del Duca</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ferdinando I de Medici, Grand Duke of Tuscany </t>
   </si>
   <si>
@@ -10103,6 +10100,9 @@
   </si>
   <si>
     <t>figliolo del re di Polonia</t>
+  </si>
+  <si>
+    <t>madre del Duca; duchessa di Bransuich; duchessa di Bransvich</t>
   </si>
 </sst>
 </file>
@@ -10454,7 +10454,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -10720,10 +10720,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Heading 1 1" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -11116,9 +11112,9 @@
   <dimension ref="A1:R852"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B297" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="16480" topLeftCell="A594"/>
+      <pane ySplit="16480" topLeftCell="A656"/>
       <selection activeCell="E305" sqref="E305"/>
-      <selection pane="bottomLeft" activeCell="A603" sqref="A603:XFD603"/>
+      <selection pane="bottomLeft" activeCell="E676" sqref="E676"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.33203125" defaultRowHeight="15"/>
@@ -11505,7 +11501,7 @@
         <v>34</v>
       </c>
       <c r="D15" s="55" t="s">
-        <v>3247</v>
+        <v>3246</v>
       </c>
       <c r="E15" s="59" t="s">
         <v>80</v>
@@ -11700,7 +11696,7 @@
         <v>34</v>
       </c>
       <c r="D23" s="55" t="s">
-        <v>3247</v>
+        <v>3246</v>
       </c>
       <c r="E23" s="57" t="s">
         <v>111</v>
@@ -11843,7 +11839,7 @@
         <v>34</v>
       </c>
       <c r="D29" s="55" t="s">
-        <v>3247</v>
+        <v>3246</v>
       </c>
       <c r="E29" s="57" t="s">
         <v>136</v>
@@ -11869,7 +11865,7 @@
         <v>34</v>
       </c>
       <c r="D30" s="55" t="s">
-        <v>3247</v>
+        <v>3246</v>
       </c>
       <c r="E30" s="57" t="s">
         <v>140</v>
@@ -12007,7 +12003,7 @@
         <v>34</v>
       </c>
       <c r="D36" s="55" t="s">
-        <v>3248</v>
+        <v>3247</v>
       </c>
       <c r="E36" s="59" t="s">
         <v>166</v>
@@ -12244,7 +12240,7 @@
     </row>
     <row r="46" spans="2:18" ht="32">
       <c r="B46" s="54" t="s">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="C46" s="54" t="s">
         <v>34</v>
@@ -12259,13 +12255,13 @@
         <v>1636</v>
       </c>
       <c r="O46" s="55" t="s">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="Q46" s="54" t="s">
         <v>217</v>
       </c>
       <c r="R46" s="75" t="s">
-        <v>3005</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="47" spans="2:18" ht="64">
@@ -12416,7 +12412,7 @@
         <v>34</v>
       </c>
       <c r="D53" s="55" t="s">
-        <v>3249</v>
+        <v>3248</v>
       </c>
       <c r="E53" s="57" t="s">
         <v>243</v>
@@ -12485,7 +12481,7 @@
         <v>34</v>
       </c>
       <c r="D56" s="55" t="s">
-        <v>3247</v>
+        <v>3246</v>
       </c>
       <c r="E56" s="57" t="s">
         <v>259</v>
@@ -12511,7 +12507,7 @@
         <v>34</v>
       </c>
       <c r="D57" s="55" t="s">
-        <v>3247</v>
+        <v>3246</v>
       </c>
       <c r="E57" s="57" t="s">
         <v>263</v>
@@ -12614,7 +12610,7 @@
         <v>34</v>
       </c>
       <c r="D61" s="55" t="s">
-        <v>3247</v>
+        <v>3246</v>
       </c>
       <c r="E61" s="57" t="s">
         <v>282</v>
@@ -12672,7 +12668,7 @@
         <v>34</v>
       </c>
       <c r="D63" s="55" t="s">
-        <v>3247</v>
+        <v>3246</v>
       </c>
       <c r="E63" s="57" t="s">
         <v>292</v>
@@ -12773,7 +12769,7 @@
         <v>34</v>
       </c>
       <c r="D67" s="55" t="s">
-        <v>3247</v>
+        <v>3246</v>
       </c>
       <c r="E67" s="57" t="s">
         <v>310</v>
@@ -12839,7 +12835,7 @@
         <v>34</v>
       </c>
       <c r="D70" s="55" t="s">
-        <v>3247</v>
+        <v>3246</v>
       </c>
       <c r="E70" s="57" t="s">
         <v>322</v>
@@ -12865,7 +12861,7 @@
         <v>34</v>
       </c>
       <c r="D71" s="55" t="s">
-        <v>3250</v>
+        <v>3249</v>
       </c>
       <c r="E71" s="57" t="s">
         <v>327</v>
@@ -12894,7 +12890,7 @@
         <v>34</v>
       </c>
       <c r="D72" s="55" t="s">
-        <v>3248</v>
+        <v>3247</v>
       </c>
       <c r="E72" s="57" t="s">
         <v>332</v>
@@ -12920,7 +12916,7 @@
         <v>34</v>
       </c>
       <c r="D73" s="55" t="s">
-        <v>3247</v>
+        <v>3246</v>
       </c>
       <c r="E73" s="54" t="s">
         <v>336</v>
@@ -13026,7 +13022,7 @@
         <v>34</v>
       </c>
       <c r="D78" s="55" t="s">
-        <v>3247</v>
+        <v>3246</v>
       </c>
       <c r="E78" s="57" t="s">
         <v>355</v>
@@ -13052,7 +13048,7 @@
         <v>34</v>
       </c>
       <c r="D79" s="55" t="s">
-        <v>3247</v>
+        <v>3246</v>
       </c>
       <c r="E79" s="57" t="s">
         <v>359</v>
@@ -13198,7 +13194,7 @@
         <v>34</v>
       </c>
       <c r="D86" s="55" t="s">
-        <v>3247</v>
+        <v>3246</v>
       </c>
       <c r="E86" s="57" t="s">
         <v>385</v>
@@ -13430,7 +13426,7 @@
         <v>34</v>
       </c>
       <c r="D97" s="55" t="s">
-        <v>3262</v>
+        <v>3261</v>
       </c>
       <c r="E97" s="57" t="s">
         <v>430</v>
@@ -13571,7 +13567,7 @@
         <v>34</v>
       </c>
       <c r="D103" s="55" t="s">
-        <v>3247</v>
+        <v>3246</v>
       </c>
       <c r="E103" s="57" t="s">
         <v>455</v>
@@ -14101,7 +14097,7 @@
         <v>34</v>
       </c>
       <c r="D132" s="55" t="s">
-        <v>3247</v>
+        <v>3246</v>
       </c>
       <c r="E132" s="57" t="s">
         <v>552</v>
@@ -14121,7 +14117,7 @@
         <v>34</v>
       </c>
       <c r="D133" s="55" t="s">
-        <v>3247</v>
+        <v>3246</v>
       </c>
       <c r="E133" s="57" t="s">
         <v>556</v>
@@ -14144,7 +14140,7 @@
         <v>34</v>
       </c>
       <c r="D134" s="55" t="s">
-        <v>3254</v>
+        <v>3253</v>
       </c>
       <c r="E134" s="54" t="s">
         <v>560</v>
@@ -14170,7 +14166,7 @@
         <v>34</v>
       </c>
       <c r="D135" s="55" t="s">
-        <v>3247</v>
+        <v>3246</v>
       </c>
       <c r="E135" s="54" t="s">
         <v>563</v>
@@ -14190,7 +14186,7 @@
         <v>34</v>
       </c>
       <c r="D136" s="55" t="s">
-        <v>3247</v>
+        <v>3246</v>
       </c>
       <c r="E136" s="57" t="s">
         <v>566</v>
@@ -14463,7 +14459,7 @@
         <v>34</v>
       </c>
       <c r="D148" s="55" t="s">
-        <v>3255</v>
+        <v>3254</v>
       </c>
       <c r="E148" s="57" t="s">
         <v>622</v>
@@ -14524,7 +14520,7 @@
         <v>34</v>
       </c>
       <c r="D150" s="55" t="s">
-        <v>3247</v>
+        <v>3246</v>
       </c>
       <c r="E150" s="57" t="s">
         <v>633</v>
@@ -14616,7 +14612,7 @@
         <v>34</v>
       </c>
       <c r="D154" s="55" t="s">
-        <v>3247</v>
+        <v>3246</v>
       </c>
       <c r="E154" s="57" t="s">
         <v>652</v>
@@ -15528,7 +15524,7 @@
         <v>34</v>
       </c>
       <c r="D203" s="55" t="s">
-        <v>3255</v>
+        <v>3254</v>
       </c>
       <c r="E203" s="59" t="s">
         <v>827</v>
@@ -15574,7 +15570,7 @@
         <v>34</v>
       </c>
       <c r="D205" s="55" t="s">
-        <v>3255</v>
+        <v>3254</v>
       </c>
       <c r="E205" s="57" t="s">
         <v>834</v>
@@ -15730,7 +15726,7 @@
         <v>34</v>
       </c>
       <c r="D212" s="55" t="s">
-        <v>3255</v>
+        <v>3254</v>
       </c>
       <c r="E212" s="57" t="s">
         <v>858</v>
@@ -15756,10 +15752,10 @@
         <v>34</v>
       </c>
       <c r="D213" s="55" t="s">
-        <v>3255</v>
+        <v>3254</v>
       </c>
       <c r="E213" s="57" t="s">
-        <v>3273</v>
+        <v>3272</v>
       </c>
       <c r="F213" s="54" t="s">
         <v>865</v>
@@ -15782,7 +15778,7 @@
         <v>34</v>
       </c>
       <c r="D214" s="55" t="s">
-        <v>3255</v>
+        <v>3254</v>
       </c>
       <c r="E214" s="57" t="s">
         <v>868</v>
@@ -15917,7 +15913,7 @@
         <v>34</v>
       </c>
       <c r="D220" s="55" t="s">
-        <v>3255</v>
+        <v>3254</v>
       </c>
       <c r="E220" s="57" t="s">
         <v>894</v>
@@ -16011,7 +16007,7 @@
         <v>34</v>
       </c>
       <c r="D225" s="55" t="s">
-        <v>3248</v>
+        <v>3247</v>
       </c>
       <c r="E225" s="57" t="s">
         <v>910</v>
@@ -16057,7 +16053,7 @@
         <v>34</v>
       </c>
       <c r="D227" s="55" t="s">
-        <v>3248</v>
+        <v>3247</v>
       </c>
       <c r="E227" s="54" t="s">
         <v>917</v>
@@ -16080,7 +16076,7 @@
         <v>34</v>
       </c>
       <c r="D228" s="55" t="s">
-        <v>3248</v>
+        <v>3247</v>
       </c>
       <c r="E228" s="57" t="s">
         <v>920</v>
@@ -16172,7 +16168,7 @@
         <v>34</v>
       </c>
       <c r="D232" s="55" t="s">
-        <v>3248</v>
+        <v>3247</v>
       </c>
       <c r="E232" s="59" t="s">
         <v>937</v>
@@ -16245,7 +16241,7 @@
         <v>34</v>
       </c>
       <c r="D237" s="55" t="s">
-        <v>3248</v>
+        <v>3247</v>
       </c>
       <c r="E237" s="57" t="s">
         <v>949</v>
@@ -16288,7 +16284,7 @@
         <v>34</v>
       </c>
       <c r="D239" s="55" t="s">
-        <v>3248</v>
+        <v>3247</v>
       </c>
       <c r="E239" s="54" t="s">
         <v>953</v>
@@ -16448,7 +16444,7 @@
         <v>34</v>
       </c>
       <c r="D247" s="55" t="s">
-        <v>3254</v>
+        <v>3253</v>
       </c>
       <c r="E247" s="57" t="s">
         <v>984</v>
@@ -16477,7 +16473,7 @@
         <v>34</v>
       </c>
       <c r="D248" s="55" t="s">
-        <v>3254</v>
+        <v>3253</v>
       </c>
       <c r="E248" s="57" t="s">
         <v>987</v>
@@ -16506,7 +16502,7 @@
         <v>34</v>
       </c>
       <c r="D249" s="55" t="s">
-        <v>3248</v>
+        <v>3247</v>
       </c>
       <c r="E249" s="57" t="s">
         <v>988</v>
@@ -16535,7 +16531,7 @@
         <v>34</v>
       </c>
       <c r="D250" s="55" t="s">
-        <v>3248</v>
+        <v>3247</v>
       </c>
       <c r="E250" s="57" t="s">
         <v>990</v>
@@ -16555,7 +16551,7 @@
         <v>34</v>
       </c>
       <c r="D251" s="55" t="s">
-        <v>3248</v>
+        <v>3247</v>
       </c>
       <c r="E251" s="57" t="s">
         <v>992</v>
@@ -16852,7 +16848,7 @@
         <v>34</v>
       </c>
       <c r="E266" s="57" t="s">
-        <v>3271</v>
+        <v>3270</v>
       </c>
       <c r="F266" s="54" t="s">
         <v>1044</v>
@@ -16903,7 +16899,7 @@
         <v>34</v>
       </c>
       <c r="D269" s="55" t="s">
-        <v>3248</v>
+        <v>3247</v>
       </c>
       <c r="E269" s="57" t="s">
         <v>1053</v>
@@ -17098,7 +17094,7 @@
         <v>34</v>
       </c>
       <c r="D281" s="55" t="s">
-        <v>3248</v>
+        <v>3247</v>
       </c>
       <c r="E281" s="57" t="s">
         <v>1091</v>
@@ -17146,7 +17142,7 @@
         <v>34</v>
       </c>
       <c r="D284" s="55" t="s">
-        <v>3248</v>
+        <v>3247</v>
       </c>
       <c r="E284" s="57" t="s">
         <v>1100</v>
@@ -17166,7 +17162,7 @@
         <v>34</v>
       </c>
       <c r="D285" s="55" t="s">
-        <v>3248</v>
+        <v>3247</v>
       </c>
       <c r="E285" s="57" t="s">
         <v>1104</v>
@@ -17394,7 +17390,7 @@
         <v>34</v>
       </c>
       <c r="D297" s="55" t="s">
-        <v>3251</v>
+        <v>3250</v>
       </c>
       <c r="E297" s="54" t="s">
         <v>1149</v>
@@ -17446,7 +17442,7 @@
         <v>34</v>
       </c>
       <c r="D299" s="55" t="s">
-        <v>3251</v>
+        <v>3250</v>
       </c>
       <c r="E299" s="54" t="s">
         <v>1154</v>
@@ -17935,7 +17931,7 @@
         <v>34</v>
       </c>
       <c r="D323" s="55" t="s">
-        <v>3256</v>
+        <v>3255</v>
       </c>
       <c r="E323" s="57" t="s">
         <v>1245</v>
@@ -17965,7 +17961,7 @@
         <v>34</v>
       </c>
       <c r="D324" s="55" t="s">
-        <v>3256</v>
+        <v>3255</v>
       </c>
       <c r="E324" s="57" t="s">
         <v>1246</v>
@@ -18061,7 +18057,7 @@
         <v>34</v>
       </c>
       <c r="D328" s="55" t="s">
-        <v>3257</v>
+        <v>3256</v>
       </c>
       <c r="E328" s="56" t="s">
         <v>1257</v>
@@ -18579,7 +18575,7 @@
         <v>34</v>
       </c>
       <c r="D351" s="55" t="s">
-        <v>3256</v>
+        <v>3255</v>
       </c>
       <c r="E351" s="56" t="s">
         <v>1347</v>
@@ -18605,7 +18601,7 @@
         <v>34</v>
       </c>
       <c r="D352" s="55" t="s">
-        <v>3256</v>
+        <v>3255</v>
       </c>
       <c r="E352" s="56" t="s">
         <v>1351</v>
@@ -18631,7 +18627,7 @@
         <v>34</v>
       </c>
       <c r="D353" s="55" t="s">
-        <v>3252</v>
+        <v>3251</v>
       </c>
       <c r="E353" s="56" t="s">
         <v>1354</v>
@@ -18883,7 +18879,7 @@
         <v>34</v>
       </c>
       <c r="D366" s="55" t="s">
-        <v>3258</v>
+        <v>3257</v>
       </c>
       <c r="E366" s="56" t="s">
         <v>1397</v>
@@ -18909,7 +18905,7 @@
         <v>34</v>
       </c>
       <c r="D367" s="55" t="s">
-        <v>3259</v>
+        <v>3258</v>
       </c>
       <c r="E367" s="56" t="s">
         <v>1399</v>
@@ -18938,7 +18934,7 @@
         <v>34</v>
       </c>
       <c r="D368" s="55" t="s">
-        <v>3259</v>
+        <v>3258</v>
       </c>
       <c r="E368" s="56" t="s">
         <v>1402</v>
@@ -18967,7 +18963,7 @@
         <v>34</v>
       </c>
       <c r="D369" s="55" t="s">
-        <v>3249</v>
+        <v>3248</v>
       </c>
       <c r="E369" s="56" t="s">
         <v>1403</v>
@@ -18996,7 +18992,7 @@
         <v>34</v>
       </c>
       <c r="D370" s="55" t="s">
-        <v>3251</v>
+        <v>3250</v>
       </c>
       <c r="E370" s="56" t="s">
         <v>1404</v>
@@ -19025,7 +19021,7 @@
         <v>34</v>
       </c>
       <c r="D371" s="55" t="s">
-        <v>3267</v>
+        <v>3266</v>
       </c>
       <c r="E371" s="56" t="s">
         <v>1405</v>
@@ -19547,7 +19543,7 @@
         <v>34</v>
       </c>
       <c r="D398" s="55" t="s">
-        <v>3247</v>
+        <v>3246</v>
       </c>
       <c r="E398" s="56" t="s">
         <v>1484</v>
@@ -19567,7 +19563,7 @@
         <v>34</v>
       </c>
       <c r="D399" s="55" t="s">
-        <v>3247</v>
+        <v>3246</v>
       </c>
       <c r="E399" s="57" t="s">
         <v>1486</v>
@@ -19590,7 +19586,7 @@
         <v>34</v>
       </c>
       <c r="D400" s="55" t="s">
-        <v>3248</v>
+        <v>3247</v>
       </c>
       <c r="E400" s="56" t="s">
         <v>1489</v>
@@ -19732,7 +19728,7 @@
         <v>34</v>
       </c>
       <c r="D408" s="55" t="s">
-        <v>3255</v>
+        <v>3254</v>
       </c>
       <c r="E408" s="54" t="s">
         <v>1513</v>
@@ -19971,7 +19967,7 @@
         <v>34</v>
       </c>
       <c r="D421" s="55" t="s">
-        <v>3255</v>
+        <v>3254</v>
       </c>
       <c r="E421" s="56" t="s">
         <v>1550</v>
@@ -20153,7 +20149,7 @@
         <v>34</v>
       </c>
       <c r="D432" s="55" t="s">
-        <v>3247</v>
+        <v>3246</v>
       </c>
       <c r="E432" s="56" t="s">
         <v>1582</v>
@@ -20236,7 +20232,7 @@
         <v>34</v>
       </c>
       <c r="D436" s="55" t="s">
-        <v>3260</v>
+        <v>3259</v>
       </c>
       <c r="E436" s="56" t="s">
         <v>1594</v>
@@ -20929,7 +20925,7 @@
         <v>34</v>
       </c>
       <c r="D474" s="55" t="s">
-        <v>3247</v>
+        <v>3246</v>
       </c>
       <c r="E474" s="57" t="s">
         <v>1715</v>
@@ -20952,7 +20948,7 @@
         <v>34</v>
       </c>
       <c r="D475" s="55" t="s">
-        <v>3259</v>
+        <v>3258</v>
       </c>
       <c r="E475" s="56" t="s">
         <v>1718</v>
@@ -20975,7 +20971,7 @@
         <v>34</v>
       </c>
       <c r="D476" s="55" t="s">
-        <v>3247</v>
+        <v>3246</v>
       </c>
       <c r="E476" s="56" t="s">
         <v>1722</v>
@@ -21174,7 +21170,7 @@
         <v>34</v>
       </c>
       <c r="D487" s="55" t="s">
-        <v>3251</v>
+        <v>3250</v>
       </c>
       <c r="E487" s="54" t="s">
         <v>1758</v>
@@ -21324,7 +21320,7 @@
         <v>34</v>
       </c>
       <c r="D494" s="55" t="s">
-        <v>3262</v>
+        <v>3261</v>
       </c>
       <c r="E494" s="54" t="s">
         <v>1779</v>
@@ -21373,7 +21369,7 @@
         <v>34</v>
       </c>
       <c r="D496" s="55" t="s">
-        <v>3262</v>
+        <v>3261</v>
       </c>
       <c r="E496" s="54" t="s">
         <v>1781</v>
@@ -21410,7 +21406,7 @@
         <v>34</v>
       </c>
       <c r="D498" s="55" t="s">
-        <v>3253</v>
+        <v>3252</v>
       </c>
       <c r="E498" s="56" t="s">
         <v>455</v>
@@ -21613,7 +21609,7 @@
         <v>34</v>
       </c>
       <c r="D508" s="55" t="s">
-        <v>3255</v>
+        <v>3254</v>
       </c>
       <c r="E508" s="59" t="s">
         <v>1815</v>
@@ -21636,7 +21632,7 @@
         <v>34</v>
       </c>
       <c r="D509" s="55" t="s">
-        <v>3255</v>
+        <v>3254</v>
       </c>
       <c r="E509" s="59" t="s">
         <v>188</v>
@@ -21688,7 +21684,7 @@
         <v>34</v>
       </c>
       <c r="D511" s="55" t="s">
-        <v>3263</v>
+        <v>3262</v>
       </c>
       <c r="E511" s="56" t="s">
         <v>1826</v>
@@ -21712,7 +21708,7 @@
         <v>34</v>
       </c>
       <c r="D512" s="55" t="s">
-        <v>3264</v>
+        <v>3263</v>
       </c>
       <c r="E512" s="57" t="s">
         <v>1829</v>
@@ -22000,7 +21996,7 @@
         <v>34</v>
       </c>
       <c r="D527" s="89" t="s">
-        <v>3268</v>
+        <v>3267</v>
       </c>
       <c r="E527" s="57" t="s">
         <v>1880</v>
@@ -22096,7 +22092,7 @@
         <v>34</v>
       </c>
       <c r="D532" s="55" t="s">
-        <v>3261</v>
+        <v>3260</v>
       </c>
       <c r="E532" s="57" t="s">
         <v>1897</v>
@@ -22336,7 +22332,7 @@
         <v>34</v>
       </c>
       <c r="D544" s="55" t="s">
-        <v>3251</v>
+        <v>3250</v>
       </c>
       <c r="E544" s="57" t="s">
         <v>1937</v>
@@ -22442,7 +22438,7 @@
         <v>34</v>
       </c>
       <c r="D549" s="55" t="s">
-        <v>3250</v>
+        <v>3249</v>
       </c>
       <c r="E549" s="57" t="s">
         <v>1954</v>
@@ -22678,7 +22674,7 @@
         <v>34</v>
       </c>
       <c r="D562" s="55" t="s">
-        <v>3250</v>
+        <v>3249</v>
       </c>
       <c r="E562" s="54" t="s">
         <v>2000</v>
@@ -22721,7 +22717,7 @@
         <v>34</v>
       </c>
       <c r="D564" s="55" t="s">
-        <v>3261</v>
+        <v>3260</v>
       </c>
       <c r="E564" s="57" t="s">
         <v>2008</v>
@@ -22799,7 +22795,7 @@
         <v>34</v>
       </c>
       <c r="E567" s="57" t="s">
-        <v>3272</v>
+        <v>3271</v>
       </c>
       <c r="F567" s="54" t="s">
         <v>2022</v>
@@ -22958,7 +22954,7 @@
         <v>34</v>
       </c>
       <c r="D574" s="55" t="s">
-        <v>3250</v>
+        <v>3249</v>
       </c>
       <c r="E574" s="57" t="s">
         <v>2053</v>
@@ -23004,7 +23000,7 @@
         <v>34</v>
       </c>
       <c r="D576" s="55" t="s">
-        <v>3250</v>
+        <v>3249</v>
       </c>
       <c r="E576" s="57" t="s">
         <v>2062</v>
@@ -23118,7 +23114,7 @@
         <v>34</v>
       </c>
       <c r="D582" s="55" t="s">
-        <v>3250</v>
+        <v>3249</v>
       </c>
       <c r="E582" s="57" t="s">
         <v>2081</v>
@@ -23248,7 +23244,7 @@
         <v>34</v>
       </c>
       <c r="D588" s="55" t="s">
-        <v>3250</v>
+        <v>3249</v>
       </c>
       <c r="E588" s="54" t="s">
         <v>2103</v>
@@ -23431,7 +23427,7 @@
         <v>34</v>
       </c>
       <c r="D597" s="55" t="s">
-        <v>3251</v>
+        <v>3250</v>
       </c>
       <c r="E597" s="57" t="s">
         <v>2139</v>
@@ -23512,7 +23508,7 @@
         <v>34</v>
       </c>
       <c r="D600" s="55" t="s">
-        <v>3258</v>
+        <v>3257</v>
       </c>
       <c r="E600" s="57" t="s">
         <v>2146</v>
@@ -23704,7 +23700,7 @@
         <v>34</v>
       </c>
       <c r="D609" s="55" t="s">
-        <v>3251</v>
+        <v>3250</v>
       </c>
       <c r="E609" s="57" t="s">
         <v>2181</v>
@@ -23724,7 +23720,7 @@
         <v>34</v>
       </c>
       <c r="D610" s="55" t="s">
-        <v>3251</v>
+        <v>3250</v>
       </c>
       <c r="E610" s="54" t="s">
         <v>2185</v>
@@ -23741,7 +23737,7 @@
         <v>34</v>
       </c>
       <c r="D611" s="55" t="s">
-        <v>3261</v>
+        <v>3260</v>
       </c>
       <c r="E611" s="57" t="s">
         <v>2188</v>
@@ -24004,7 +24000,7 @@
         <v>34</v>
       </c>
       <c r="D624" s="55" t="s">
-        <v>3248</v>
+        <v>3247</v>
       </c>
       <c r="E624" s="57" t="s">
         <v>2240</v>
@@ -24030,7 +24026,7 @@
         <v>34</v>
       </c>
       <c r="D625" s="55" t="s">
-        <v>3248</v>
+        <v>3247</v>
       </c>
       <c r="E625" s="57" t="s">
         <v>2244</v>
@@ -24100,7 +24096,7 @@
         <v>34</v>
       </c>
       <c r="D628" s="55" t="s">
-        <v>3249</v>
+        <v>3248</v>
       </c>
       <c r="E628" s="57" t="s">
         <v>2257</v>
@@ -24807,8 +24803,8 @@
       <c r="C664" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="D664" s="111" t="s">
-        <v>3269</v>
+      <c r="D664" t="s">
+        <v>3268</v>
       </c>
       <c r="E664" s="54" t="s">
         <v>2385</v>
@@ -24921,8 +24917,8 @@
       <c r="C670" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="D670" s="111" t="s">
-        <v>3270</v>
+      <c r="D670" t="s">
+        <v>3269</v>
       </c>
       <c r="E670" s="57" t="s">
         <v>2403</v>
@@ -25069,7 +25065,7 @@
         <v>12</v>
       </c>
       <c r="E676" s="54" t="s">
-        <v>2424</v>
+        <v>3273</v>
       </c>
       <c r="F676" s="54" t="s">
         <v>2423</v>
@@ -25083,16 +25079,16 @@
     </row>
     <row r="677" spans="2:18" ht="16">
       <c r="B677" s="54" t="s">
+        <v>2424</v>
+      </c>
+      <c r="C677" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E677" s="57" t="s">
         <v>2425</v>
       </c>
-      <c r="C677" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E677" s="57" t="s">
+      <c r="F677" s="54" t="s">
         <v>2426</v>
-      </c>
-      <c r="F677" s="54" t="s">
-        <v>2427</v>
       </c>
       <c r="G677" s="54">
         <v>1549</v>
@@ -25101,7 +25097,7 @@
         <v>1609</v>
       </c>
       <c r="O677" s="55" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="678" spans="2:18" ht="16">
@@ -25112,13 +25108,13 @@
         <v>34</v>
       </c>
       <c r="D678" s="55" t="s">
-        <v>3261</v>
+        <v>3260</v>
       </c>
       <c r="E678" s="57" t="s">
+        <v>2428</v>
+      </c>
+      <c r="F678" s="54" t="s">
         <v>2429</v>
-      </c>
-      <c r="F678" s="54" t="s">
-        <v>2430</v>
       </c>
       <c r="G678" s="54">
         <v>1600</v>
@@ -25129,16 +25125,16 @@
     </row>
     <row r="679" spans="2:18" ht="16">
       <c r="B679" s="54" t="s">
+        <v>2430</v>
+      </c>
+      <c r="C679" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E679" s="54" t="s">
         <v>2431</v>
       </c>
-      <c r="C679" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E679" s="54" t="s">
+      <c r="F679" s="54" t="s">
         <v>2432</v>
-      </c>
-      <c r="F679" s="54" t="s">
-        <v>2433</v>
       </c>
       <c r="G679" s="54">
         <v>1580</v>
@@ -25149,16 +25145,16 @@
     </row>
     <row r="680" spans="2:18" ht="16">
       <c r="B680" s="54" t="s">
+        <v>2433</v>
+      </c>
+      <c r="C680" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E680" s="54" t="s">
         <v>2434</v>
       </c>
-      <c r="C680" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E680" s="54" t="s">
+      <c r="F680" s="54" t="s">
         <v>2435</v>
-      </c>
-      <c r="F680" s="54" t="s">
-        <v>2436</v>
       </c>
       <c r="G680" s="54">
         <v>1573</v>
@@ -25169,19 +25165,19 @@
     </row>
     <row r="681" spans="2:18" ht="16">
       <c r="B681" s="54" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="C681" s="54" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="D681" s="55" t="s">
         <v>1651</v>
       </c>
       <c r="E681" s="54" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="F681" s="54" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="G681" s="54">
         <v>1573</v>
@@ -25192,16 +25188,16 @@
     </row>
     <row r="682" spans="2:18" ht="32">
       <c r="B682" s="54" t="s">
+        <v>2438</v>
+      </c>
+      <c r="C682" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E682" s="57" t="s">
         <v>2439</v>
       </c>
-      <c r="C682" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E682" s="57" t="s">
+      <c r="F682" s="54" t="s">
         <v>2440</v>
-      </c>
-      <c r="F682" s="54" t="s">
-        <v>2441</v>
       </c>
       <c r="G682" s="54">
         <v>1565</v>
@@ -25210,12 +25206,12 @@
         <v>1623</v>
       </c>
       <c r="Q682" s="54" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="683" spans="2:18" ht="32">
       <c r="B683" s="54" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="C683" s="54" t="s">
         <v>34</v>
@@ -25224,10 +25220,10 @@
         <v>11</v>
       </c>
       <c r="E683" s="57" t="s">
+        <v>2443</v>
+      </c>
+      <c r="F683" s="54" t="s">
         <v>2444</v>
-      </c>
-      <c r="F683" s="54" t="s">
-        <v>2445</v>
       </c>
       <c r="G683" s="54">
         <v>1545</v>
@@ -25238,16 +25234,16 @@
     </row>
     <row r="684" spans="2:18" ht="32">
       <c r="B684" s="54" t="s">
+        <v>2445</v>
+      </c>
+      <c r="C684" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E684" s="57" t="s">
         <v>2446</v>
       </c>
-      <c r="C684" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E684" s="57" t="s">
+      <c r="F684" s="54" t="s">
         <v>2447</v>
-      </c>
-      <c r="F684" s="54" t="s">
-        <v>2448</v>
       </c>
       <c r="G684" s="54">
         <v>1593</v>
@@ -25256,24 +25252,24 @@
         <v>1657</v>
       </c>
       <c r="O684" s="55" t="s">
+        <v>2448</v>
+      </c>
+      <c r="R684" s="56" t="s">
         <v>2449</v>
-      </c>
-      <c r="R684" s="56" t="s">
-        <v>2450</v>
       </c>
     </row>
     <row r="685" spans="2:18" ht="16">
       <c r="B685" s="54" t="s">
+        <v>2450</v>
+      </c>
+      <c r="C685" s="54" t="s">
+        <v>2436</v>
+      </c>
+      <c r="E685" s="57" t="s">
         <v>2451</v>
       </c>
-      <c r="C685" s="54" t="s">
-        <v>2437</v>
-      </c>
-      <c r="E685" s="57" t="s">
+      <c r="F685" s="54" t="s">
         <v>2452</v>
-      </c>
-      <c r="F685" s="54" t="s">
-        <v>2453</v>
       </c>
       <c r="G685" s="54">
         <v>1570</v>
@@ -25284,53 +25280,53 @@
     </row>
     <row r="686" spans="2:18" ht="16">
       <c r="B686" s="54" t="s">
+        <v>2453</v>
+      </c>
+      <c r="C686" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E686" s="54" t="s">
         <v>2454</v>
       </c>
-      <c r="C686" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E686" s="54" t="s">
+      <c r="F686" s="54" t="s">
         <v>2455</v>
       </c>
-      <c r="F686" s="54" t="s">
+      <c r="O686" s="55" t="s">
         <v>2456</v>
-      </c>
-      <c r="O686" s="55" t="s">
-        <v>2457</v>
       </c>
     </row>
     <row r="687" spans="2:18" ht="16">
       <c r="B687" s="54" t="s">
+        <v>2457</v>
+      </c>
+      <c r="C687" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E687" s="54" t="s">
         <v>2458</v>
       </c>
-      <c r="C687" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E687" s="54" t="s">
+      <c r="F687" s="54" t="s">
         <v>2459</v>
       </c>
-      <c r="F687" s="54" t="s">
+      <c r="O687" s="55" t="s">
         <v>2460</v>
-      </c>
-      <c r="O687" s="55" t="s">
-        <v>2461</v>
       </c>
     </row>
     <row r="688" spans="2:18" ht="32">
       <c r="B688" s="54" t="s">
+        <v>2461</v>
+      </c>
+      <c r="C688" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="D688" s="55" t="s">
+        <v>3264</v>
+      </c>
+      <c r="E688" s="57" t="s">
         <v>2462</v>
       </c>
-      <c r="C688" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="D688" s="55" t="s">
-        <v>3265</v>
-      </c>
-      <c r="E688" s="57" t="s">
+      <c r="F688" s="54" t="s">
         <v>2463</v>
-      </c>
-      <c r="F688" s="54" t="s">
-        <v>2464</v>
       </c>
       <c r="G688" s="54">
         <v>1610</v>
@@ -25339,12 +25335,12 @@
         <v>1670</v>
       </c>
       <c r="R688" s="54" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="689" spans="2:18" ht="32">
       <c r="B689" s="54" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="C689" s="54" t="s">
         <v>34</v>
@@ -25353,10 +25349,10 @@
         <v>10</v>
       </c>
       <c r="E689" s="57" t="s">
+        <v>2466</v>
+      </c>
+      <c r="F689" s="54" t="s">
         <v>2467</v>
-      </c>
-      <c r="F689" s="54" t="s">
-        <v>2468</v>
       </c>
       <c r="G689" s="54">
         <v>1580</v>
@@ -25367,16 +25363,16 @@
     </row>
     <row r="690" spans="2:18" ht="32">
       <c r="B690" s="54" t="s">
+        <v>2468</v>
+      </c>
+      <c r="C690" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E690" s="57" t="s">
         <v>2469</v>
       </c>
-      <c r="C690" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E690" s="57" t="s">
+      <c r="F690" s="54" t="s">
         <v>2470</v>
-      </c>
-      <c r="F690" s="54" t="s">
-        <v>2471</v>
       </c>
       <c r="G690" s="54">
         <v>1578</v>
@@ -25385,44 +25381,44 @@
         <v>1645</v>
       </c>
       <c r="O690" s="55" t="s">
+        <v>2471</v>
+      </c>
+      <c r="R690" s="61" t="s">
         <v>2472</v>
-      </c>
-      <c r="R690" s="61" t="s">
-        <v>2473</v>
       </c>
     </row>
     <row r="691" spans="2:18" ht="32">
       <c r="B691" s="54" t="s">
+        <v>2473</v>
+      </c>
+      <c r="C691" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="D691" s="55" t="s">
+        <v>3265</v>
+      </c>
+      <c r="E691" s="57" t="s">
         <v>2474</v>
       </c>
-      <c r="C691" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="D691" s="55" t="s">
-        <v>3266</v>
-      </c>
-      <c r="E691" s="57" t="s">
+      <c r="F691" s="54" t="s">
         <v>2475</v>
       </c>
-      <c r="F691" s="54" t="s">
+      <c r="O691" s="55" t="s">
         <v>2476</v>
-      </c>
-      <c r="O691" s="55" t="s">
-        <v>2477</v>
       </c>
     </row>
     <row r="692" spans="2:18" ht="16">
       <c r="B692" s="54" t="s">
+        <v>2477</v>
+      </c>
+      <c r="C692" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E692" s="54" t="s">
         <v>2478</v>
       </c>
-      <c r="C692" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E692" s="54" t="s">
+      <c r="F692" s="54" t="s">
         <v>2479</v>
-      </c>
-      <c r="F692" s="54" t="s">
-        <v>2480</v>
       </c>
       <c r="G692" s="54">
         <v>1521</v>
@@ -25431,21 +25427,21 @@
         <v>1553</v>
       </c>
       <c r="O692" s="55" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="693" spans="2:18" ht="32">
       <c r="B693" s="54" t="s">
+        <v>2481</v>
+      </c>
+      <c r="C693" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E693" s="54" t="s">
         <v>2482</v>
       </c>
-      <c r="C693" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E693" s="54" t="s">
+      <c r="F693" s="54" t="s">
         <v>2483</v>
-      </c>
-      <c r="F693" s="54" t="s">
-        <v>2484</v>
       </c>
       <c r="G693" s="54">
         <v>1519</v>
@@ -25454,38 +25450,38 @@
         <v>1559</v>
       </c>
       <c r="O693" s="55" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="694" spans="2:18" ht="16">
       <c r="B694" s="54" t="s">
+        <v>2485</v>
+      </c>
+      <c r="C694" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E694" s="54" t="s">
         <v>2486</v>
       </c>
-      <c r="C694" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E694" s="54" t="s">
+      <c r="F694" s="54" t="s">
         <v>2487</v>
       </c>
-      <c r="F694" s="54" t="s">
+      <c r="O694" s="55" t="s">
         <v>2488</v>
-      </c>
-      <c r="O694" s="55" t="s">
-        <v>2489</v>
       </c>
     </row>
     <row r="695" spans="2:18" ht="48">
       <c r="B695" s="54" t="s">
+        <v>2489</v>
+      </c>
+      <c r="C695" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E695" s="57" t="s">
         <v>2490</v>
       </c>
-      <c r="C695" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E695" s="57" t="s">
+      <c r="F695" s="54" t="s">
         <v>2491</v>
-      </c>
-      <c r="F695" s="54" t="s">
-        <v>2492</v>
       </c>
       <c r="G695" s="54">
         <v>1565</v>
@@ -25494,303 +25490,303 @@
         <v>1630</v>
       </c>
       <c r="O695" s="55" t="s">
+        <v>2492</v>
+      </c>
+      <c r="R695" s="61" t="s">
         <v>2493</v>
-      </c>
-      <c r="R695" s="61" t="s">
-        <v>2494</v>
       </c>
     </row>
     <row r="696" spans="2:18" ht="16">
       <c r="B696" s="54" t="s">
+        <v>2494</v>
+      </c>
+      <c r="C696" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E696" s="54" t="s">
         <v>2495</v>
       </c>
-      <c r="C696" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E696" s="54" t="s">
+      <c r="F696" s="54" t="s">
         <v>2496</v>
       </c>
-      <c r="F696" s="54" t="s">
+      <c r="O696" s="55" t="s">
         <v>2497</v>
-      </c>
-      <c r="O696" s="55" t="s">
-        <v>2498</v>
       </c>
     </row>
     <row r="697" spans="2:18" ht="32">
       <c r="B697" s="54" t="s">
+        <v>2498</v>
+      </c>
+      <c r="C697" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="D697" s="55" t="s">
+        <v>3260</v>
+      </c>
+      <c r="E697" s="57" t="s">
         <v>2499</v>
       </c>
-      <c r="C697" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="D697" s="55" t="s">
-        <v>3261</v>
-      </c>
-      <c r="E697" s="57" t="s">
-        <v>2500</v>
-      </c>
       <c r="F697" s="54" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="L697" s="54">
         <v>1620</v>
       </c>
       <c r="O697" s="55" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="698" spans="2:18" ht="48">
       <c r="B698" s="54" t="s">
+        <v>2501</v>
+      </c>
+      <c r="C698" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E698" s="57" t="s">
         <v>2502</v>
       </c>
-      <c r="C698" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E698" s="57" t="s">
+      <c r="F698" s="54" t="s">
         <v>2503</v>
       </c>
-      <c r="F698" s="54" t="s">
+      <c r="O698" s="55" t="s">
         <v>2504</v>
-      </c>
-      <c r="O698" s="55" t="s">
-        <v>2505</v>
       </c>
     </row>
     <row r="699" spans="2:18" ht="32">
       <c r="B699" s="54" t="s">
+        <v>2505</v>
+      </c>
+      <c r="C699" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="D699" s="55" t="s">
+        <v>3260</v>
+      </c>
+      <c r="E699" s="57" t="s">
         <v>2506</v>
       </c>
-      <c r="C699" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="D699" s="55" t="s">
-        <v>3261</v>
-      </c>
-      <c r="E699" s="57" t="s">
-        <v>2507</v>
-      </c>
       <c r="F699" s="54" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="L699" s="54">
         <v>1620</v>
       </c>
       <c r="O699" s="55" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="700" spans="2:18" ht="32">
       <c r="B700" s="54" t="s">
+        <v>2508</v>
+      </c>
+      <c r="C700" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E700" s="57" t="s">
         <v>2509</v>
       </c>
-      <c r="C700" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E700" s="57" t="s">
+      <c r="F700" s="54" t="s">
         <v>2510</v>
       </c>
-      <c r="F700" s="54" t="s">
+      <c r="O700" s="54" t="s">
         <v>2511</v>
-      </c>
-      <c r="O700" s="54" t="s">
-        <v>2512</v>
       </c>
     </row>
     <row r="701" spans="2:18" ht="32">
       <c r="B701" s="54" t="s">
+        <v>2512</v>
+      </c>
+      <c r="C701" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E701" s="57" t="s">
         <v>2513</v>
       </c>
-      <c r="C701" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E701" s="57" t="s">
+      <c r="F701" s="54" t="s">
         <v>2514</v>
       </c>
-      <c r="F701" s="54" t="s">
-        <v>2515</v>
-      </c>
       <c r="O701" s="54" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="702" spans="2:18" ht="16">
       <c r="B702" s="54" t="s">
+        <v>2515</v>
+      </c>
+      <c r="C702" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E702" s="57" t="s">
         <v>2516</v>
       </c>
-      <c r="C702" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E702" s="57" t="s">
+      <c r="F702" s="54" t="s">
         <v>2517</v>
       </c>
-      <c r="F702" s="54" t="s">
+      <c r="O702" s="55" t="s">
         <v>2518</v>
-      </c>
-      <c r="O702" s="55" t="s">
-        <v>2519</v>
       </c>
     </row>
     <row r="703" spans="2:18" ht="16">
       <c r="B703" s="54" t="s">
+        <v>2519</v>
+      </c>
+      <c r="C703" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E703" s="57" t="s">
         <v>2520</v>
       </c>
-      <c r="C703" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E703" s="57" t="s">
+      <c r="F703" s="54" t="s">
         <v>2521</v>
       </c>
-      <c r="F703" s="54" t="s">
-        <v>2522</v>
-      </c>
       <c r="O703" s="55" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="704" spans="2:18" ht="16">
       <c r="B704" s="54" t="s">
+        <v>2522</v>
+      </c>
+      <c r="C704" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E704" s="57" t="s">
         <v>2523</v>
       </c>
-      <c r="C704" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E704" s="57" t="s">
+      <c r="F704" s="54" t="s">
         <v>2524</v>
       </c>
-      <c r="F704" s="54" t="s">
-        <v>2525</v>
-      </c>
       <c r="O704" s="55" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="705" spans="2:18" ht="16">
       <c r="B705" s="54" t="s">
+        <v>2525</v>
+      </c>
+      <c r="C705" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E705" s="54" t="s">
+        <v>2525</v>
+      </c>
+      <c r="F705" s="54" t="s">
         <v>2526</v>
       </c>
-      <c r="C705" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E705" s="54" t="s">
-        <v>2526</v>
-      </c>
-      <c r="F705" s="54" t="s">
-        <v>2527</v>
-      </c>
       <c r="O705" s="55" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="706" spans="2:18" ht="16">
       <c r="B706" s="54" t="s">
+        <v>2527</v>
+      </c>
+      <c r="C706" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E706" s="54" t="s">
+        <v>2527</v>
+      </c>
+      <c r="F706" s="54" t="s">
         <v>2528</v>
       </c>
-      <c r="C706" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E706" s="54" t="s">
-        <v>2528</v>
-      </c>
-      <c r="F706" s="54" t="s">
-        <v>2529</v>
-      </c>
       <c r="O706" s="55" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="707" spans="2:18" ht="16">
       <c r="B707" s="54" t="s">
+        <v>2529</v>
+      </c>
+      <c r="C707" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="D707" s="55" t="s">
+        <v>3260</v>
+      </c>
+      <c r="E707" s="57" t="s">
         <v>2530</v>
       </c>
-      <c r="C707" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="D707" s="55" t="s">
-        <v>3261</v>
-      </c>
-      <c r="E707" s="57" t="s">
+      <c r="F707" s="54" t="s">
         <v>2531</v>
       </c>
-      <c r="F707" s="54" t="s">
-        <v>2532</v>
-      </c>
       <c r="O707" s="55" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="708" spans="2:18" ht="16">
       <c r="B708" s="54" t="s">
+        <v>2532</v>
+      </c>
+      <c r="C708" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="D708" s="55" t="s">
+        <v>3260</v>
+      </c>
+      <c r="E708" s="57" t="s">
         <v>2533</v>
       </c>
-      <c r="C708" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="D708" s="55" t="s">
-        <v>3261</v>
-      </c>
-      <c r="E708" s="57" t="s">
+      <c r="F708" s="54" t="s">
         <v>2534</v>
       </c>
-      <c r="F708" s="54" t="s">
-        <v>2535</v>
-      </c>
       <c r="O708" s="55" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="709" spans="2:18" ht="32">
       <c r="B709" s="54" t="s">
+        <v>2535</v>
+      </c>
+      <c r="C709" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="D709" s="55" t="s">
+        <v>3260</v>
+      </c>
+      <c r="E709" s="57" t="s">
         <v>2536</v>
       </c>
-      <c r="C709" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="D709" s="55" t="s">
-        <v>3261</v>
-      </c>
-      <c r="E709" s="57" t="s">
+      <c r="F709" s="54" t="s">
         <v>2537</v>
       </c>
-      <c r="F709" s="54" t="s">
+      <c r="O709" s="55" t="s">
         <v>2538</v>
-      </c>
-      <c r="O709" s="55" t="s">
-        <v>2539</v>
       </c>
     </row>
     <row r="710" spans="2:18" ht="48">
       <c r="B710" s="54" t="s">
+        <v>2539</v>
+      </c>
+      <c r="C710" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E710" s="54" t="s">
         <v>2540</v>
       </c>
-      <c r="C710" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E710" s="54" t="s">
+      <c r="F710" s="54" t="s">
         <v>2541</v>
-      </c>
-      <c r="F710" s="54" t="s">
-        <v>2542</v>
       </c>
       <c r="K710" s="54">
         <v>1630</v>
       </c>
       <c r="O710" s="55" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="711" spans="2:18" ht="80">
       <c r="B711" s="54" t="s">
+        <v>2543</v>
+      </c>
+      <c r="C711" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E711" s="57" t="s">
         <v>2544</v>
       </c>
-      <c r="C711" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E711" s="57" t="s">
+      <c r="F711" s="54" t="s">
         <v>2545</v>
-      </c>
-      <c r="F711" s="54" t="s">
-        <v>2546</v>
       </c>
       <c r="G711" s="54">
         <v>1575</v>
@@ -25799,116 +25795,116 @@
         <v>1642</v>
       </c>
       <c r="O711" s="55" t="s">
+        <v>2546</v>
+      </c>
+      <c r="R711" s="61" t="s">
         <v>2547</v>
-      </c>
-      <c r="R711" s="61" t="s">
-        <v>2548</v>
       </c>
     </row>
     <row r="712" spans="2:18" ht="16">
       <c r="B712" s="54" t="s">
+        <v>2548</v>
+      </c>
+      <c r="C712" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E712" s="57" t="s">
+        <v>2548</v>
+      </c>
+      <c r="F712" s="54" t="s">
         <v>2549</v>
-      </c>
-      <c r="C712" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E712" s="57" t="s">
-        <v>2549</v>
-      </c>
-      <c r="F712" s="54" t="s">
-        <v>2550</v>
       </c>
     </row>
     <row r="713" spans="2:18" ht="16">
       <c r="B713" s="54" t="s">
+        <v>2550</v>
+      </c>
+      <c r="C713" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E713" s="57" t="s">
+        <v>2550</v>
+      </c>
+      <c r="F713" s="54" t="s">
         <v>2551</v>
       </c>
-      <c r="C713" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E713" s="57" t="s">
-        <v>2551</v>
-      </c>
-      <c r="F713" s="54" t="s">
+      <c r="R713" s="54" t="s">
         <v>2552</v>
-      </c>
-      <c r="R713" s="54" t="s">
-        <v>2553</v>
       </c>
     </row>
     <row r="714" spans="2:18" ht="16">
       <c r="B714" s="54" t="s">
+        <v>2553</v>
+      </c>
+      <c r="C714" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E714" s="57" t="s">
+        <v>2553</v>
+      </c>
+      <c r="F714" s="54" t="s">
         <v>2554</v>
-      </c>
-      <c r="C714" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E714" s="57" t="s">
-        <v>2554</v>
-      </c>
-      <c r="F714" s="54" t="s">
-        <v>2555</v>
       </c>
     </row>
     <row r="715" spans="2:18" ht="16">
       <c r="B715" s="77" t="s">
+        <v>2555</v>
+      </c>
+      <c r="C715" s="77" t="s">
+        <v>34</v>
+      </c>
+      <c r="D715" s="55" t="s">
+        <v>3260</v>
+      </c>
+      <c r="E715" s="78" t="s">
         <v>2556</v>
       </c>
-      <c r="C715" s="77" t="s">
-        <v>34</v>
-      </c>
-      <c r="D715" s="55" t="s">
-        <v>3261</v>
-      </c>
-      <c r="E715" s="78" t="s">
+      <c r="F715" s="54" t="s">
         <v>2557</v>
-      </c>
-      <c r="F715" s="54" t="s">
-        <v>2558</v>
       </c>
       <c r="K715" s="54">
         <v>1640</v>
       </c>
       <c r="O715" s="55" t="s">
+        <v>2558</v>
+      </c>
+      <c r="R715" s="61" t="s">
         <v>2559</v>
-      </c>
-      <c r="R715" s="61" t="s">
-        <v>2560</v>
       </c>
     </row>
     <row r="716" spans="2:18" ht="16">
       <c r="B716" s="77" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="C716" s="77" t="s">
         <v>34</v>
       </c>
       <c r="D716" s="87"/>
       <c r="E716" s="77" t="s">
+        <v>2561</v>
+      </c>
+      <c r="F716" s="54" t="s">
         <v>2562</v>
       </c>
-      <c r="F716" s="54" t="s">
+      <c r="O716" s="55" t="s">
         <v>2563</v>
-      </c>
-      <c r="O716" s="55" t="s">
-        <v>2564</v>
       </c>
     </row>
     <row r="717" spans="2:18" ht="48">
       <c r="B717" s="77" t="s">
+        <v>2564</v>
+      </c>
+      <c r="C717" s="77" t="s">
+        <v>34</v>
+      </c>
+      <c r="D717" s="55" t="s">
+        <v>3260</v>
+      </c>
+      <c r="E717" s="77" t="s">
         <v>2565</v>
       </c>
-      <c r="C717" s="77" t="s">
-        <v>34</v>
-      </c>
-      <c r="D717" s="55" t="s">
-        <v>3261</v>
-      </c>
-      <c r="E717" s="77" t="s">
+      <c r="F717" s="54" t="s">
         <v>2566</v>
-      </c>
-      <c r="F717" s="54" t="s">
-        <v>2567</v>
       </c>
       <c r="G717" s="54">
         <v>1600</v>
@@ -25917,25 +25913,25 @@
         <v>1674</v>
       </c>
       <c r="O717" s="55" t="s">
+        <v>2567</v>
+      </c>
+      <c r="R717" s="54" t="s">
         <v>2568</v>
-      </c>
-      <c r="R717" s="54" t="s">
-        <v>2569</v>
       </c>
     </row>
     <row r="718" spans="2:18" ht="32">
       <c r="B718" s="77" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="C718" s="77" t="s">
         <v>34</v>
       </c>
       <c r="D718" s="87"/>
       <c r="E718" s="78" t="s">
+        <v>2570</v>
+      </c>
+      <c r="F718" s="54" t="s">
         <v>2571</v>
-      </c>
-      <c r="F718" s="54" t="s">
-        <v>2572</v>
       </c>
       <c r="J718" s="54">
         <v>1590</v>
@@ -25944,25 +25940,25 @@
         <v>1649</v>
       </c>
       <c r="O718" s="55" t="s">
+        <v>2572</v>
+      </c>
+      <c r="R718" s="75" t="s">
         <v>2573</v>
-      </c>
-      <c r="R718" s="75" t="s">
-        <v>2574</v>
       </c>
     </row>
     <row r="719" spans="2:18" ht="17">
       <c r="B719" s="77" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="C719" s="77" t="s">
         <v>34</v>
       </c>
       <c r="D719" s="87"/>
       <c r="E719" s="79" t="s">
+        <v>2575</v>
+      </c>
+      <c r="F719" s="54" t="s">
         <v>2576</v>
-      </c>
-      <c r="F719" s="54" t="s">
-        <v>2577</v>
       </c>
       <c r="J719" s="54">
         <v>1567</v>
@@ -25971,24 +25967,24 @@
         <v>1622</v>
       </c>
       <c r="O719" s="55" t="s">
+        <v>2577</v>
+      </c>
+      <c r="R719" s="75" t="s">
         <v>2578</v>
-      </c>
-      <c r="R719" s="75" t="s">
-        <v>2579</v>
       </c>
     </row>
     <row r="720" spans="2:18" ht="80">
       <c r="B720" s="77" t="s">
+        <v>2579</v>
+      </c>
+      <c r="C720" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E720" s="82" t="s">
         <v>2580</v>
       </c>
-      <c r="C720" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E720" s="82" t="s">
+      <c r="F720" s="54" t="s">
         <v>2581</v>
-      </c>
-      <c r="F720" s="54" t="s">
-        <v>2582</v>
       </c>
       <c r="J720" s="54">
         <v>1570</v>
@@ -25997,21 +25993,21 @@
         <v>1622</v>
       </c>
       <c r="O720" s="55" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="721" spans="2:18" ht="32">
       <c r="B721" s="77" t="s">
+        <v>2583</v>
+      </c>
+      <c r="C721" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E721" s="78" t="s">
         <v>2584</v>
       </c>
-      <c r="C721" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E721" s="78" t="s">
+      <c r="F721" s="54" t="s">
         <v>2585</v>
-      </c>
-      <c r="F721" s="54" t="s">
-        <v>2586</v>
       </c>
       <c r="G721" s="54">
         <v>1566</v>
@@ -26020,24 +26016,24 @@
         <v>1637</v>
       </c>
       <c r="O721" s="55" t="s">
+        <v>2586</v>
+      </c>
+      <c r="R721" s="56" t="s">
         <v>2587</v>
-      </c>
-      <c r="R721" s="56" t="s">
-        <v>2588</v>
       </c>
     </row>
     <row r="722" spans="2:18" ht="32">
       <c r="B722" s="81" t="s">
+        <v>2588</v>
+      </c>
+      <c r="C722" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E722" s="78" t="s">
         <v>2589</v>
       </c>
-      <c r="C722" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E722" s="78" t="s">
+      <c r="F722" s="54" t="s">
         <v>2590</v>
-      </c>
-      <c r="F722" s="54" t="s">
-        <v>2591</v>
       </c>
       <c r="G722" s="54">
         <v>1563</v>
@@ -26046,21 +26042,21 @@
         <v>1635</v>
       </c>
       <c r="O722" s="55" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="723" spans="2:18" ht="48">
       <c r="B723" s="54" t="s">
+        <v>2592</v>
+      </c>
+      <c r="C723" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E723" s="78" t="s">
         <v>2593</v>
       </c>
-      <c r="C723" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E723" s="78" t="s">
+      <c r="F723" s="54" t="s">
         <v>2594</v>
-      </c>
-      <c r="F723" s="54" t="s">
-        <v>2595</v>
       </c>
       <c r="G723" s="54">
         <v>1567</v>
@@ -26069,58 +26065,58 @@
         <v>1652</v>
       </c>
       <c r="O723" s="55" t="s">
+        <v>2595</v>
+      </c>
+      <c r="R723" s="83" t="s">
         <v>2596</v>
-      </c>
-      <c r="R723" s="83" t="s">
-        <v>2597</v>
       </c>
     </row>
     <row r="724" spans="2:18" ht="16">
       <c r="B724" s="54" t="s">
+        <v>2597</v>
+      </c>
+      <c r="C724" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E724" s="57" t="s">
         <v>2598</v>
       </c>
-      <c r="C724" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E724" s="57" t="s">
+      <c r="F724" s="54" t="s">
         <v>2599</v>
-      </c>
-      <c r="F724" s="54" t="s">
-        <v>2600</v>
       </c>
     </row>
     <row r="725" spans="2:18" ht="16">
       <c r="B725" s="84" t="s">
+        <v>2600</v>
+      </c>
+      <c r="C725" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E725" s="57" t="s">
         <v>2601</v>
       </c>
-      <c r="C725" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E725" s="57" t="s">
+      <c r="F725" s="54" t="s">
         <v>2602</v>
       </c>
-      <c r="F725" s="54" t="s">
+      <c r="R725" s="80" t="s">
         <v>2603</v>
-      </c>
-      <c r="R725" s="80" t="s">
-        <v>2604</v>
       </c>
     </row>
     <row r="726" spans="2:18" ht="80">
       <c r="B726" s="81" t="s">
+        <v>2604</v>
+      </c>
+      <c r="C726" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="D726" s="55" t="s">
+        <v>3260</v>
+      </c>
+      <c r="E726" s="85" t="s">
         <v>2605</v>
       </c>
-      <c r="C726" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="D726" s="55" t="s">
-        <v>3261</v>
-      </c>
-      <c r="E726" s="85" t="s">
+      <c r="F726" s="54" t="s">
         <v>2606</v>
-      </c>
-      <c r="F726" s="54" t="s">
-        <v>2607</v>
       </c>
       <c r="G726" s="54">
         <v>1578</v>
@@ -26129,24 +26125,24 @@
         <v>1648</v>
       </c>
       <c r="O726" s="55" t="s">
+        <v>2607</v>
+      </c>
+      <c r="R726" s="75" t="s">
         <v>2608</v>
-      </c>
-      <c r="R726" s="75" t="s">
-        <v>2609</v>
       </c>
     </row>
     <row r="727" spans="2:18" ht="80">
       <c r="B727" s="81" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
       <c r="C727" s="54" t="s">
         <v>34</v>
       </c>
       <c r="E727" s="57" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="F727" s="54" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="G727" s="54">
         <v>1578</v>
@@ -26155,15 +26151,15 @@
         <v>1648</v>
       </c>
       <c r="O727" s="55" t="s">
+        <v>2607</v>
+      </c>
+      <c r="R727" s="75" t="s">
         <v>2608</v>
-      </c>
-      <c r="R727" s="75" t="s">
-        <v>2609</v>
       </c>
     </row>
     <row r="728" spans="2:18" ht="16">
       <c r="B728" s="77" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="C728" s="54" t="s">
         <v>34</v>
@@ -26172,27 +26168,27 @@
         <v>11</v>
       </c>
       <c r="E728" s="85" t="s">
+        <v>2611</v>
+      </c>
+      <c r="F728" s="54" t="s">
         <v>2612</v>
       </c>
-      <c r="F728" s="54" t="s">
+      <c r="O728" s="84" t="s">
         <v>2613</v>
-      </c>
-      <c r="O728" s="84" t="s">
-        <v>2614</v>
       </c>
     </row>
     <row r="729" spans="2:18" ht="48">
       <c r="B729" s="77" t="s">
+        <v>2614</v>
+      </c>
+      <c r="C729" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E729" s="81" t="s">
         <v>2615</v>
       </c>
-      <c r="C729" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E729" s="81" t="s">
+      <c r="F729" s="54" t="s">
         <v>2616</v>
-      </c>
-      <c r="F729" s="54" t="s">
-        <v>2617</v>
       </c>
       <c r="G729" s="54">
         <v>1584</v>
@@ -26201,124 +26197,124 @@
         <v>1657</v>
       </c>
       <c r="O729" s="55" t="s">
+        <v>2617</v>
+      </c>
+      <c r="R729" s="75" t="s">
         <v>2618</v>
-      </c>
-      <c r="R729" s="75" t="s">
-        <v>2619</v>
       </c>
     </row>
     <row r="730" spans="2:18" ht="32">
       <c r="B730" s="54" t="s">
+        <v>2619</v>
+      </c>
+      <c r="C730" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E730" s="54" t="s">
         <v>2620</v>
       </c>
-      <c r="C730" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E730" s="54" t="s">
+      <c r="F730" s="54" t="s">
         <v>2621</v>
       </c>
-      <c r="F730" s="54" t="s">
+      <c r="O730" s="55" t="s">
         <v>2622</v>
-      </c>
-      <c r="O730" s="55" t="s">
-        <v>2623</v>
       </c>
     </row>
     <row r="731" spans="2:18" ht="16">
       <c r="B731" s="54" t="s">
+        <v>2623</v>
+      </c>
+      <c r="C731" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="D731" s="55" t="s">
+        <v>3260</v>
+      </c>
+      <c r="E731" s="57" t="s">
         <v>2624</v>
       </c>
-      <c r="C731" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="D731" s="55" t="s">
-        <v>3261</v>
-      </c>
-      <c r="E731" s="57" t="s">
+      <c r="F731" s="54" t="s">
         <v>2625</v>
-      </c>
-      <c r="F731" s="54" t="s">
-        <v>2626</v>
       </c>
       <c r="K731" s="54">
         <v>1621</v>
       </c>
       <c r="O731" s="55" t="s">
+        <v>2626</v>
+      </c>
+      <c r="R731" s="83" t="s">
         <v>2627</v>
-      </c>
-      <c r="R731" s="83" t="s">
-        <v>2628</v>
       </c>
     </row>
     <row r="732" spans="2:18" ht="64">
       <c r="B732" s="54" t="s">
+        <v>2628</v>
+      </c>
+      <c r="C732" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="D732" s="55" t="s">
+        <v>3260</v>
+      </c>
+      <c r="E732" s="57" t="s">
         <v>2629</v>
       </c>
-      <c r="C732" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="D732" s="55" t="s">
-        <v>3261</v>
-      </c>
-      <c r="E732" s="57" t="s">
+      <c r="F732" s="54" t="s">
         <v>2630</v>
       </c>
-      <c r="F732" s="54" t="s">
+      <c r="O732" s="55" t="s">
         <v>2631</v>
       </c>
-      <c r="O732" s="55" t="s">
+      <c r="R732" s="75" t="s">
         <v>2632</v>
-      </c>
-      <c r="R732" s="75" t="s">
-        <v>2633</v>
       </c>
     </row>
     <row r="733" spans="2:18" ht="48">
       <c r="B733" s="54" t="s">
+        <v>2633</v>
+      </c>
+      <c r="C733" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E733" s="88" t="s">
         <v>2634</v>
-      </c>
-      <c r="C733" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E733" s="88" t="s">
-        <v>2635</v>
       </c>
       <c r="F733" s="54" t="s">
         <v>408</v>
       </c>
       <c r="O733" s="55" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="734" spans="2:18" ht="16">
       <c r="B734" s="54" t="s">
+        <v>2636</v>
+      </c>
+      <c r="C734" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E734" s="88" t="s">
         <v>2637</v>
       </c>
-      <c r="C734" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E734" s="88" t="s">
+      <c r="F734" s="54" t="s">
         <v>2638</v>
       </c>
-      <c r="F734" s="54" t="s">
+      <c r="O734" s="55" t="s">
         <v>2639</v>
-      </c>
-      <c r="O734" s="55" t="s">
-        <v>2640</v>
       </c>
     </row>
     <row r="735" spans="2:18" ht="48">
       <c r="B735" s="54" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C735" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E735" s="88" t="s">
         <v>2641</v>
       </c>
-      <c r="C735" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E735" s="88" t="s">
+      <c r="F735" s="54" t="s">
         <v>2642</v>
-      </c>
-      <c r="F735" s="54" t="s">
-        <v>2643</v>
       </c>
       <c r="G735" s="54">
         <v>1590</v>
@@ -26327,41 +26323,41 @@
         <v>1629</v>
       </c>
       <c r="O735" s="55" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="736" spans="2:18" ht="48">
       <c r="B736" s="54" t="s">
+        <v>2644</v>
+      </c>
+      <c r="C736" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="D736" s="55" t="s">
+        <v>3260</v>
+      </c>
+      <c r="E736" s="57" t="s">
         <v>2645</v>
       </c>
-      <c r="C736" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="D736" s="55" t="s">
-        <v>3261</v>
-      </c>
-      <c r="E736" s="57" t="s">
+      <c r="F736" s="54" t="s">
         <v>2646</v>
       </c>
-      <c r="F736" s="54" t="s">
+      <c r="O736" s="55" t="s">
         <v>2647</v>
-      </c>
-      <c r="O736" s="55" t="s">
-        <v>2648</v>
       </c>
     </row>
     <row r="737" spans="1:18" ht="48">
       <c r="B737" s="54" t="s">
+        <v>2648</v>
+      </c>
+      <c r="C737" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E737" s="54" t="s">
         <v>2649</v>
       </c>
-      <c r="C737" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E737" s="54" t="s">
+      <c r="F737" s="54" t="s">
         <v>2650</v>
-      </c>
-      <c r="F737" s="54" t="s">
-        <v>2651</v>
       </c>
       <c r="G737" s="54">
         <v>1580</v>
@@ -26370,56 +26366,56 @@
         <v>1644</v>
       </c>
       <c r="O737" s="55" t="s">
+        <v>2651</v>
+      </c>
+      <c r="R737" s="75" t="s">
         <v>2652</v>
-      </c>
-      <c r="R737" s="75" t="s">
-        <v>2653</v>
       </c>
     </row>
     <row r="738" spans="1:18" ht="32">
       <c r="B738" s="77" t="s">
+        <v>2653</v>
+      </c>
+      <c r="C738" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="D738" s="55" t="s">
+        <v>3260</v>
+      </c>
+      <c r="E738" s="85" t="s">
         <v>2654</v>
       </c>
-      <c r="C738" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="D738" s="55" t="s">
-        <v>3261</v>
-      </c>
-      <c r="E738" s="85" t="s">
+      <c r="F738" s="54" t="s">
         <v>2655</v>
       </c>
-      <c r="F738" s="54" t="s">
+      <c r="O738" s="55" t="s">
         <v>2656</v>
       </c>
-      <c r="O738" s="55" t="s">
+      <c r="R738" s="75" t="s">
         <v>2657</v>
-      </c>
-      <c r="R738" s="75" t="s">
-        <v>2658</v>
       </c>
     </row>
     <row r="739" spans="1:18" ht="16">
       <c r="B739" s="84" t="s">
+        <v>2658</v>
+      </c>
+      <c r="C739" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E739" s="85" t="s">
         <v>2659</v>
       </c>
-      <c r="C739" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E739" s="85" t="s">
+      <c r="F739" s="90" t="s">
         <v>2660</v>
-      </c>
-      <c r="F739" s="90" t="s">
-        <v>2661</v>
       </c>
       <c r="K739" s="54">
         <v>1625</v>
       </c>
       <c r="O739" s="55" t="s">
+        <v>2661</v>
+      </c>
+      <c r="R739" s="75" t="s">
         <v>2662</v>
-      </c>
-      <c r="R739" s="75" t="s">
-        <v>2663</v>
       </c>
     </row>
     <row r="740" spans="1:18" ht="16">
@@ -26427,25 +26423,25 @@
         <v>448</v>
       </c>
       <c r="B740" s="77" t="s">
+        <v>2663</v>
+      </c>
+      <c r="C740" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E740" s="85" t="s">
         <v>2664</v>
       </c>
-      <c r="C740" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E740" s="85" t="s">
+      <c r="F740" s="54" t="s">
         <v>2665</v>
-      </c>
-      <c r="F740" s="54" t="s">
-        <v>2666</v>
       </c>
       <c r="K740" s="54">
         <v>1637</v>
       </c>
       <c r="O740" s="55" t="s">
+        <v>2666</v>
+      </c>
+      <c r="R740" s="75" t="s">
         <v>2667</v>
-      </c>
-      <c r="R740" s="75" t="s">
-        <v>2668</v>
       </c>
     </row>
     <row r="741" spans="1:18" ht="16">
@@ -26453,25 +26449,25 @@
         <v>454</v>
       </c>
       <c r="B741" s="77" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
       <c r="C741" s="54" t="s">
         <v>34</v>
       </c>
       <c r="E741" s="85" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
       <c r="F741" s="54" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="K741" s="54">
         <v>1637</v>
       </c>
       <c r="O741" s="55" t="s">
+        <v>2666</v>
+      </c>
+      <c r="R741" s="75" t="s">
         <v>2667</v>
-      </c>
-      <c r="R741" s="75" t="s">
-        <v>2668</v>
       </c>
     </row>
     <row r="742" spans="1:18" ht="16">
@@ -26479,39 +26475,39 @@
         <v>448</v>
       </c>
       <c r="B742" s="77" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
       <c r="C742" s="54" t="s">
         <v>34</v>
       </c>
       <c r="D742" s="55" t="s">
-        <v>3261</v>
+        <v>3260</v>
       </c>
       <c r="E742" s="85" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
       <c r="F742" s="54" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="K742" s="54">
         <v>1637</v>
       </c>
       <c r="O742" s="55" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
     </row>
     <row r="743" spans="1:18" ht="96">
       <c r="B743" s="77" t="s">
+        <v>2670</v>
+      </c>
+      <c r="C743" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E743" s="85" t="s">
         <v>2671</v>
       </c>
-      <c r="C743" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E743" s="85" t="s">
+      <c r="F743" s="54" t="s">
         <v>2672</v>
-      </c>
-      <c r="F743" s="54" t="s">
-        <v>2673</v>
       </c>
       <c r="G743" s="54">
         <v>1565</v>
@@ -26520,41 +26516,41 @@
         <v>1642</v>
       </c>
       <c r="O743" s="55" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
     </row>
     <row r="744" spans="1:18" ht="128">
       <c r="B744" s="54" t="s">
+        <v>2674</v>
+      </c>
+      <c r="C744" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E744" s="57" t="s">
         <v>2675</v>
       </c>
-      <c r="C744" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E744" s="57" t="s">
+      <c r="F744" s="54" t="s">
         <v>2676</v>
       </c>
-      <c r="F744" s="54" t="s">
+      <c r="O744" s="55" t="s">
         <v>2677</v>
-      </c>
-      <c r="O744" s="55" t="s">
-        <v>2678</v>
       </c>
     </row>
     <row r="745" spans="1:18" ht="16">
       <c r="B745" s="54" t="s">
+        <v>2678</v>
+      </c>
+      <c r="C745" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="D745" s="55" t="s">
+        <v>3260</v>
+      </c>
+      <c r="E745" s="57" t="s">
         <v>2679</v>
       </c>
-      <c r="C745" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="D745" s="55" t="s">
-        <v>3261</v>
-      </c>
-      <c r="E745" s="57" t="s">
+      <c r="F745" s="54" t="s">
         <v>2680</v>
-      </c>
-      <c r="F745" s="54" t="s">
-        <v>2681</v>
       </c>
       <c r="K745" s="54">
         <v>1620</v>
@@ -26562,33 +26558,33 @@
     </row>
     <row r="746" spans="1:18" ht="16">
       <c r="B746" s="54" t="s">
+        <v>2681</v>
+      </c>
+      <c r="C746" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="D746" s="55" t="s">
+        <v>3260</v>
+      </c>
+      <c r="E746" s="57" t="s">
         <v>2682</v>
       </c>
-      <c r="C746" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="D746" s="55" t="s">
-        <v>3261</v>
-      </c>
-      <c r="E746" s="57" t="s">
+      <c r="F746" s="54" t="s">
         <v>2683</v>
-      </c>
-      <c r="F746" s="54" t="s">
-        <v>2684</v>
       </c>
     </row>
     <row r="747" spans="1:18" ht="32">
       <c r="B747" s="54" t="s">
+        <v>2684</v>
+      </c>
+      <c r="C747" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E747" s="57" t="s">
         <v>2685</v>
       </c>
-      <c r="C747" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E747" s="57" t="s">
+      <c r="F747" s="54" t="s">
         <v>2686</v>
-      </c>
-      <c r="F747" s="54" t="s">
-        <v>2687</v>
       </c>
       <c r="G747" s="54">
         <v>1575</v>
@@ -26597,24 +26593,24 @@
         <v>1649</v>
       </c>
       <c r="O747" s="55" t="s">
+        <v>2687</v>
+      </c>
+      <c r="R747" s="75" t="s">
         <v>2688</v>
-      </c>
-      <c r="R747" s="75" t="s">
-        <v>2689</v>
       </c>
     </row>
     <row r="748" spans="1:18" ht="16">
       <c r="B748" s="54" t="s">
+        <v>2689</v>
+      </c>
+      <c r="C748" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E748" s="57" t="s">
         <v>2690</v>
       </c>
-      <c r="C748" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E748" s="57" t="s">
+      <c r="F748" s="54" t="s">
         <v>2691</v>
-      </c>
-      <c r="F748" s="54" t="s">
-        <v>2692</v>
       </c>
       <c r="G748" s="54">
         <v>1552</v>
@@ -26623,15 +26619,15 @@
         <v>1631</v>
       </c>
       <c r="O748" s="55" t="s">
+        <v>2692</v>
+      </c>
+      <c r="R748" s="75" t="s">
         <v>2693</v>
-      </c>
-      <c r="R748" s="75" t="s">
-        <v>2694</v>
       </c>
     </row>
     <row r="749" spans="1:18" ht="32">
       <c r="B749" s="54" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
       <c r="C749" s="54" t="s">
         <v>34</v>
@@ -26640,10 +26636,10 @@
         <v>1651</v>
       </c>
       <c r="E749" s="57" t="s">
+        <v>2695</v>
+      </c>
+      <c r="F749" s="54" t="s">
         <v>2696</v>
-      </c>
-      <c r="F749" s="54" t="s">
-        <v>2697</v>
       </c>
       <c r="G749" s="54">
         <v>1567</v>
@@ -26652,21 +26648,21 @@
         <v>1630</v>
       </c>
       <c r="O749" s="55" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="750" spans="1:18" ht="16">
       <c r="B750" s="54" t="s">
+        <v>2698</v>
+      </c>
+      <c r="C750" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E750" s="57" t="s">
         <v>2699</v>
       </c>
-      <c r="C750" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E750" s="57" t="s">
+      <c r="F750" s="54" t="s">
         <v>2700</v>
-      </c>
-      <c r="F750" s="54" t="s">
-        <v>2701</v>
       </c>
       <c r="G750" s="54">
         <v>1606</v>
@@ -26675,24 +26671,24 @@
         <v>1664</v>
       </c>
       <c r="O750" s="55" t="s">
+        <v>2701</v>
+      </c>
+      <c r="R750" s="83" t="s">
         <v>2702</v>
-      </c>
-      <c r="R750" s="83" t="s">
-        <v>2703</v>
       </c>
     </row>
     <row r="751" spans="1:18" ht="16">
       <c r="B751" s="54" t="s">
+        <v>2703</v>
+      </c>
+      <c r="C751" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E751" s="57" t="s">
         <v>2704</v>
       </c>
-      <c r="C751" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E751" s="57" t="s">
+      <c r="F751" s="54" t="s">
         <v>2705</v>
-      </c>
-      <c r="F751" s="54" t="s">
-        <v>2706</v>
       </c>
       <c r="G751" s="54">
         <v>1573</v>
@@ -26701,10 +26697,10 @@
         <v>1650</v>
       </c>
       <c r="O751" s="91" t="s">
+        <v>2706</v>
+      </c>
+      <c r="R751" s="75" t="s">
         <v>2707</v>
-      </c>
-      <c r="R751" s="75" t="s">
-        <v>2708</v>
       </c>
     </row>
     <row r="752" spans="1:18" ht="48">
@@ -26718,10 +26714,10 @@
         <v>1651</v>
       </c>
       <c r="E752" t="s">
+        <v>2708</v>
+      </c>
+      <c r="F752" s="54" t="s">
         <v>2709</v>
-      </c>
-      <c r="F752" s="54" t="s">
-        <v>2710</v>
       </c>
       <c r="G752" s="54">
         <v>1565</v>
@@ -26730,24 +26726,24 @@
         <v>1649</v>
       </c>
       <c r="O752" s="55" t="s">
+        <v>2710</v>
+      </c>
+      <c r="R752" s="75" t="s">
         <v>2711</v>
-      </c>
-      <c r="R752" s="75" t="s">
-        <v>2712</v>
       </c>
     </row>
     <row r="753" spans="2:18" ht="16">
       <c r="B753" s="54" t="s">
+        <v>2712</v>
+      </c>
+      <c r="C753" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E753" t="s">
         <v>2713</v>
       </c>
-      <c r="C753" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E753" t="s">
+      <c r="F753" s="54" t="s">
         <v>2714</v>
-      </c>
-      <c r="F753" s="54" t="s">
-        <v>2715</v>
       </c>
       <c r="G753" s="54">
         <v>1580</v>
@@ -26756,21 +26752,21 @@
         <v>1653</v>
       </c>
       <c r="O753" s="38" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="754" spans="2:18" ht="32">
       <c r="B754" s="54" t="s">
+        <v>2716</v>
+      </c>
+      <c r="C754" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E754" s="57" t="s">
         <v>2717</v>
       </c>
-      <c r="C754" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E754" s="57" t="s">
+      <c r="F754" s="54" t="s">
         <v>2718</v>
-      </c>
-      <c r="F754" s="54" t="s">
-        <v>2719</v>
       </c>
       <c r="I754" s="54">
         <v>1584</v>
@@ -26779,21 +26775,21 @@
         <v>1670</v>
       </c>
       <c r="O754" s="55" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
     </row>
     <row r="755" spans="2:18" ht="48">
       <c r="B755" s="54" t="s">
+        <v>2720</v>
+      </c>
+      <c r="C755" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E755" s="57" t="s">
         <v>2721</v>
       </c>
-      <c r="C755" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E755" s="57" t="s">
+      <c r="F755" s="54" t="s">
         <v>2722</v>
-      </c>
-      <c r="F755" s="54" t="s">
-        <v>2723</v>
       </c>
       <c r="G755" s="54">
         <v>1579</v>
@@ -26802,52 +26798,52 @@
         <v>1646</v>
       </c>
       <c r="O755" s="55" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="756" spans="2:18" ht="64">
       <c r="B756" s="54" t="s">
+        <v>2724</v>
+      </c>
+      <c r="C756" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E756" s="57" t="s">
         <v>2725</v>
       </c>
-      <c r="C756" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E756" s="57" t="s">
+      <c r="F756" s="54" t="s">
         <v>2726</v>
       </c>
-      <c r="F756" s="54" t="s">
+      <c r="R756" s="75" t="s">
         <v>2727</v>
-      </c>
-      <c r="R756" s="75" t="s">
-        <v>2728</v>
       </c>
     </row>
     <row r="757" spans="2:18" ht="64">
       <c r="B757" s="54" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C757" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E757" s="85" t="s">
         <v>2729</v>
       </c>
-      <c r="C757" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E757" s="85" t="s">
+      <c r="F757" s="54" t="s">
         <v>2730</v>
       </c>
-      <c r="F757" s="54" t="s">
+      <c r="R757" s="75" t="s">
         <v>2731</v>
-      </c>
-      <c r="R757" s="75" t="s">
-        <v>2732</v>
       </c>
     </row>
     <row r="758" spans="2:18" ht="64">
       <c r="B758" s="54" t="s">
+        <v>2732</v>
+      </c>
+      <c r="C758" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E758" s="57" t="s">
         <v>2733</v>
-      </c>
-      <c r="C758" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E758" s="57" t="s">
-        <v>2734</v>
       </c>
       <c r="F758" s="54" t="s">
         <v>769</v>
@@ -26856,25 +26852,25 @@
         <v>1661</v>
       </c>
       <c r="O758" s="54" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="P758" s="57"/>
       <c r="R758" s="56" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
     </row>
     <row r="759" spans="2:18" ht="80">
       <c r="B759" s="54" t="s">
+        <v>2736</v>
+      </c>
+      <c r="C759" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E759" s="57" t="s">
         <v>2737</v>
       </c>
-      <c r="C759" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E759" s="57" t="s">
+      <c r="F759" s="54" t="s">
         <v>2738</v>
-      </c>
-      <c r="F759" s="54" t="s">
-        <v>2739</v>
       </c>
       <c r="G759" s="54">
         <v>1578</v>
@@ -26883,21 +26879,21 @@
         <v>1645</v>
       </c>
       <c r="O759" s="55" t="s">
+        <v>2739</v>
+      </c>
+      <c r="R759" s="75" t="s">
         <v>2740</v>
-      </c>
-      <c r="R759" s="75" t="s">
-        <v>2741</v>
       </c>
     </row>
     <row r="760" spans="2:18" ht="48">
       <c r="B760" s="54" t="s">
+        <v>2741</v>
+      </c>
+      <c r="C760" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E760" s="57" t="s">
         <v>2742</v>
-      </c>
-      <c r="C760" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E760" s="57" t="s">
-        <v>2743</v>
       </c>
       <c r="F760" s="54" t="s">
         <v>897</v>
@@ -26909,15 +26905,15 @@
         <v>1653</v>
       </c>
       <c r="O760" s="55" t="s">
+        <v>2743</v>
+      </c>
+      <c r="R760" s="75" t="s">
         <v>2744</v>
-      </c>
-      <c r="R760" s="75" t="s">
-        <v>2745</v>
       </c>
     </row>
     <row r="761" spans="2:18" ht="32">
       <c r="B761" s="54" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
       <c r="C761" s="54" t="s">
         <v>34</v>
@@ -26926,10 +26922,10 @@
         <v>1651</v>
       </c>
       <c r="E761" s="57" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
       <c r="F761" s="54" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
       <c r="G761" s="54">
         <v>1585</v>
@@ -26938,24 +26934,24 @@
         <v>1621</v>
       </c>
       <c r="O761" s="55" t="s">
+        <v>2747</v>
+      </c>
+      <c r="R761" s="75" t="s">
         <v>2748</v>
-      </c>
-      <c r="R761" s="75" t="s">
-        <v>2749</v>
       </c>
     </row>
     <row r="762" spans="2:18" ht="32">
       <c r="B762" s="54" t="s">
+        <v>2749</v>
+      </c>
+      <c r="C762" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E762" s="57" t="s">
         <v>2750</v>
       </c>
-      <c r="C762" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E762" s="57" t="s">
+      <c r="F762" s="54" t="s">
         <v>2751</v>
-      </c>
-      <c r="F762" s="54" t="s">
-        <v>2752</v>
       </c>
       <c r="J762" s="54">
         <v>1580</v>
@@ -26964,21 +26960,21 @@
         <v>1641</v>
       </c>
       <c r="O762" s="55" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="763" spans="2:18" ht="48">
       <c r="B763" s="54" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C763" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E763" s="57" t="s">
         <v>2754</v>
       </c>
-      <c r="C763" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E763" s="57" t="s">
+      <c r="F763" s="54" t="s">
         <v>2755</v>
-      </c>
-      <c r="F763" s="54" t="s">
-        <v>2756</v>
       </c>
       <c r="G763" s="54">
         <v>1575</v>
@@ -26987,78 +26983,78 @@
         <v>1622</v>
       </c>
       <c r="O763" s="55" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="764" spans="2:18" ht="32">
       <c r="B764" s="54" t="s">
+        <v>2757</v>
+      </c>
+      <c r="C764" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E764" s="57" t="s">
         <v>2758</v>
       </c>
-      <c r="C764" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E764" s="57" t="s">
+      <c r="F764" s="54" t="s">
         <v>2759</v>
       </c>
-      <c r="F764" s="54" t="s">
+      <c r="O764" s="55" t="s">
         <v>2760</v>
       </c>
-      <c r="O764" s="55" t="s">
+      <c r="R764" s="56" t="s">
         <v>2761</v>
-      </c>
-      <c r="R764" s="56" t="s">
-        <v>2762</v>
       </c>
     </row>
     <row r="765" spans="2:18" ht="32">
       <c r="B765" s="54" t="s">
+        <v>2762</v>
+      </c>
+      <c r="C765" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E765" s="38" t="s">
         <v>2763</v>
       </c>
-      <c r="C765" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E765" s="38" t="s">
+      <c r="F765" s="54" t="s">
         <v>2764</v>
       </c>
-      <c r="F765" s="54" t="s">
+      <c r="O765" s="55" t="s">
         <v>2765</v>
       </c>
-      <c r="O765" s="55" t="s">
-        <v>2766</v>
-      </c>
       <c r="R765" s="56" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="766" spans="2:18" ht="32">
       <c r="B766" s="54" t="s">
+        <v>2766</v>
+      </c>
+      <c r="C766" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E766" s="90" t="s">
         <v>2767</v>
       </c>
-      <c r="C766" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E766" s="90" t="s">
+      <c r="F766" s="54" t="s">
         <v>2768</v>
-      </c>
-      <c r="F766" s="54" t="s">
-        <v>2769</v>
       </c>
       <c r="K766" s="54">
         <v>1654</v>
       </c>
       <c r="O766" s="55" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
     </row>
     <row r="767" spans="2:18" ht="64">
       <c r="B767" s="54" t="s">
+        <v>2770</v>
+      </c>
+      <c r="C767" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E767" s="57" t="s">
         <v>2771</v>
-      </c>
-      <c r="C767" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E767" s="57" t="s">
-        <v>2772</v>
       </c>
       <c r="F767" s="54" t="s">
         <v>193</v>
@@ -27070,24 +27066,24 @@
         <v>1635</v>
       </c>
       <c r="O767" s="55" t="s">
+        <v>2772</v>
+      </c>
+      <c r="R767" s="75" t="s">
         <v>2773</v>
-      </c>
-      <c r="R767" s="75" t="s">
-        <v>2774</v>
       </c>
     </row>
     <row r="768" spans="2:18" ht="112">
       <c r="B768" s="54" t="s">
+        <v>2774</v>
+      </c>
+      <c r="C768" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E768" s="85" t="s">
         <v>2775</v>
       </c>
-      <c r="C768" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E768" s="85" t="s">
+      <c r="F768" s="54" t="s">
         <v>2776</v>
-      </c>
-      <c r="F768" s="54" t="s">
-        <v>2777</v>
       </c>
       <c r="G768" s="54">
         <v>1566</v>
@@ -27096,96 +27092,96 @@
         <v>1620</v>
       </c>
       <c r="O768" s="55" t="s">
+        <v>2777</v>
+      </c>
+      <c r="P768" s="54" t="s">
         <v>2778</v>
       </c>
-      <c r="P768" s="54" t="s">
+      <c r="R768" s="83" t="s">
         <v>2779</v>
-      </c>
-      <c r="R768" s="83" t="s">
-        <v>2780</v>
       </c>
     </row>
     <row r="769" spans="2:18" ht="32">
       <c r="B769" s="54" t="s">
+        <v>2780</v>
+      </c>
+      <c r="C769" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E769" s="57" t="s">
         <v>2781</v>
       </c>
-      <c r="C769" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E769" s="57" t="s">
+      <c r="F769" s="54" t="s">
+        <v>2776</v>
+      </c>
+      <c r="J769" s="54" t="s">
         <v>2782</v>
-      </c>
-      <c r="F769" s="54" t="s">
-        <v>2777</v>
-      </c>
-      <c r="J769" s="54" t="s">
-        <v>2783</v>
       </c>
       <c r="K769" s="54">
         <v>1625</v>
       </c>
       <c r="O769" s="55" t="s">
+        <v>2783</v>
+      </c>
+      <c r="R769" s="75" t="s">
         <v>2784</v>
-      </c>
-      <c r="R769" s="75" t="s">
-        <v>2785</v>
       </c>
     </row>
     <row r="770" spans="2:18" ht="48">
       <c r="B770" s="54" t="s">
+        <v>2785</v>
+      </c>
+      <c r="C770" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E770" s="55" t="s">
         <v>2786</v>
       </c>
-      <c r="C770" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E770" s="55" t="s">
+      <c r="F770" s="54" t="s">
         <v>2787</v>
-      </c>
-      <c r="F770" s="54" t="s">
-        <v>2788</v>
       </c>
       <c r="K770" s="54">
         <v>1651</v>
       </c>
       <c r="O770" s="55" t="s">
+        <v>2788</v>
+      </c>
+      <c r="R770" s="56" t="s">
         <v>2789</v>
-      </c>
-      <c r="R770" s="56" t="s">
-        <v>2790</v>
       </c>
     </row>
     <row r="771" spans="2:18" ht="32">
       <c r="B771" s="54" t="s">
+        <v>2790</v>
+      </c>
+      <c r="C771" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E771" s="38" t="s">
         <v>2791</v>
       </c>
-      <c r="C771" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E771" s="38" t="s">
+      <c r="F771" s="54" t="s">
         <v>2792</v>
-      </c>
-      <c r="F771" s="54" t="s">
-        <v>2793</v>
       </c>
       <c r="K771" s="54">
         <v>1624</v>
       </c>
       <c r="O771" s="55" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
     </row>
     <row r="772" spans="2:18" ht="32">
       <c r="B772" s="54" t="s">
+        <v>2794</v>
+      </c>
+      <c r="C772" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E772" s="85" t="s">
         <v>2795</v>
       </c>
-      <c r="C772" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E772" s="85" t="s">
+      <c r="F772" s="54" t="s">
         <v>2796</v>
-      </c>
-      <c r="F772" s="54" t="s">
-        <v>2797</v>
       </c>
       <c r="G772" s="54">
         <v>1582</v>
@@ -27194,41 +27190,41 @@
         <v>1627</v>
       </c>
       <c r="O772" s="55" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
     </row>
     <row r="773" spans="2:18" ht="34">
       <c r="B773" s="54" t="s">
+        <v>2798</v>
+      </c>
+      <c r="C773" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E773" s="57" t="s">
         <v>2799</v>
       </c>
-      <c r="C773" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E773" s="57" t="s">
+      <c r="F773" s="54" t="s">
+        <v>2642</v>
+      </c>
+      <c r="O773" s="92" t="s">
         <v>2800</v>
       </c>
-      <c r="F773" s="54" t="s">
-        <v>2643</v>
-      </c>
-      <c r="O773" s="92" t="s">
+      <c r="R773" s="75" t="s">
         <v>2801</v>
-      </c>
-      <c r="R773" s="75" t="s">
-        <v>2802</v>
       </c>
     </row>
     <row r="774" spans="2:18" ht="85">
       <c r="B774" s="85" t="s">
+        <v>2802</v>
+      </c>
+      <c r="C774" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E774" s="57" t="s">
         <v>2803</v>
       </c>
-      <c r="C774" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E774" s="57" t="s">
+      <c r="F774" s="54" t="s">
         <v>2804</v>
-      </c>
-      <c r="F774" s="54" t="s">
-        <v>2805</v>
       </c>
       <c r="J774" s="54">
         <v>1560</v>
@@ -27237,24 +27233,24 @@
         <v>1629</v>
       </c>
       <c r="O774" s="92" t="s">
+        <v>2805</v>
+      </c>
+      <c r="R774" s="75" t="s">
         <v>2806</v>
-      </c>
-      <c r="R774" s="75" t="s">
-        <v>2807</v>
       </c>
     </row>
     <row r="775" spans="2:18" ht="96">
       <c r="B775" s="54" t="s">
+        <v>2807</v>
+      </c>
+      <c r="C775" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E775" s="57" t="s">
         <v>2808</v>
       </c>
-      <c r="C775" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E775" s="57" t="s">
+      <c r="F775" s="54" t="s">
         <v>2809</v>
-      </c>
-      <c r="F775" s="54" t="s">
-        <v>2810</v>
       </c>
       <c r="G775" s="54">
         <v>1575</v>
@@ -27263,24 +27259,24 @@
         <v>1627</v>
       </c>
       <c r="O775" s="55" t="s">
+        <v>2810</v>
+      </c>
+      <c r="R775" s="83" t="s">
         <v>2811</v>
-      </c>
-      <c r="R775" s="83" t="s">
-        <v>2812</v>
       </c>
     </row>
     <row r="776" spans="2:18" ht="48">
       <c r="B776" s="54" t="s">
+        <v>2812</v>
+      </c>
+      <c r="C776" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E776" s="57" t="s">
         <v>2813</v>
       </c>
-      <c r="C776" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E776" s="57" t="s">
+      <c r="F776" s="54" t="s">
         <v>2814</v>
-      </c>
-      <c r="F776" s="54" t="s">
-        <v>2815</v>
       </c>
       <c r="G776" s="54">
         <v>1588</v>
@@ -27289,15 +27285,15 @@
         <v>1644</v>
       </c>
       <c r="O776" s="55" t="s">
+        <v>2815</v>
+      </c>
+      <c r="R776" s="75" t="s">
         <v>2816</v>
-      </c>
-      <c r="R776" s="75" t="s">
-        <v>2817</v>
       </c>
     </row>
     <row r="777" spans="2:18" ht="48">
       <c r="B777" s="54" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
       <c r="C777" s="54" t="s">
         <v>34</v>
@@ -27306,10 +27302,10 @@
         <v>1651</v>
       </c>
       <c r="E777" s="57" t="s">
+        <v>2818</v>
+      </c>
+      <c r="F777" s="54" t="s">
         <v>2819</v>
-      </c>
-      <c r="F777" s="54" t="s">
-        <v>2820</v>
       </c>
       <c r="G777" s="54">
         <v>1575</v>
@@ -27318,24 +27314,24 @@
         <v>1642</v>
       </c>
       <c r="O777" s="55" t="s">
+        <v>2820</v>
+      </c>
+      <c r="R777" s="83" t="s">
         <v>2821</v>
-      </c>
-      <c r="R777" s="83" t="s">
-        <v>2822</v>
       </c>
     </row>
     <row r="778" spans="2:18" ht="64">
       <c r="B778" s="54" t="s">
+        <v>2822</v>
+      </c>
+      <c r="C778" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E778" s="57" t="s">
         <v>2823</v>
       </c>
-      <c r="C778" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E778" s="57" t="s">
+      <c r="F778" s="54" t="s">
         <v>2824</v>
-      </c>
-      <c r="F778" s="54" t="s">
-        <v>2825</v>
       </c>
       <c r="G778" s="54">
         <v>1563</v>
@@ -27344,24 +27340,24 @@
         <v>1625</v>
       </c>
       <c r="O778" s="55" t="s">
+        <v>2825</v>
+      </c>
+      <c r="R778" s="83" t="s">
         <v>2826</v>
-      </c>
-      <c r="R778" s="83" t="s">
-        <v>2827</v>
       </c>
     </row>
     <row r="779" spans="2:18" ht="32">
       <c r="B779" s="54" t="s">
+        <v>2827</v>
+      </c>
+      <c r="C779" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E779" s="57" t="s">
         <v>2828</v>
       </c>
-      <c r="C779" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E779" s="57" t="s">
+      <c r="F779" s="54" t="s">
         <v>2829</v>
-      </c>
-      <c r="F779" s="54" t="s">
-        <v>2830</v>
       </c>
       <c r="G779" s="54">
         <v>1596</v>
@@ -27370,24 +27366,24 @@
         <v>1626</v>
       </c>
       <c r="O779" s="55" t="s">
+        <v>2830</v>
+      </c>
+      <c r="R779" s="75" t="s">
         <v>2831</v>
-      </c>
-      <c r="R779" s="75" t="s">
-        <v>2832</v>
       </c>
     </row>
     <row r="780" spans="2:18" ht="32">
       <c r="B780" s="85" t="s">
+        <v>2832</v>
+      </c>
+      <c r="C780" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E780" s="57" t="s">
         <v>2833</v>
       </c>
-      <c r="C780" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E780" s="57" t="s">
+      <c r="F780" s="54" t="s">
         <v>2834</v>
-      </c>
-      <c r="F780" s="54" t="s">
-        <v>2835</v>
       </c>
       <c r="G780" s="54">
         <v>1585</v>
@@ -27396,21 +27392,21 @@
         <v>1656</v>
       </c>
       <c r="O780" s="55" t="s">
+        <v>2835</v>
+      </c>
+      <c r="R780" s="56" t="s">
         <v>2836</v>
-      </c>
-      <c r="R780" s="56" t="s">
-        <v>2837</v>
       </c>
     </row>
     <row r="781" spans="2:18" ht="32">
       <c r="B781" s="54" t="s">
+        <v>2837</v>
+      </c>
+      <c r="C781" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E781" s="85" t="s">
         <v>2838</v>
-      </c>
-      <c r="C781" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E781" s="85" t="s">
-        <v>2839</v>
       </c>
       <c r="F781" s="54" t="s">
         <v>1873</v>
@@ -27422,72 +27418,72 @@
         <v>1639</v>
       </c>
       <c r="O781" s="55" t="s">
+        <v>2839</v>
+      </c>
+      <c r="R781" s="75" t="s">
         <v>2840</v>
-      </c>
-      <c r="R781" s="112" t="s">
-        <v>2841</v>
       </c>
     </row>
     <row r="782" spans="2:18" ht="16">
       <c r="B782" s="54" t="s">
+        <v>2841</v>
+      </c>
+      <c r="C782" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E782" s="57" t="s">
         <v>2842</v>
       </c>
-      <c r="C782" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E782" s="57" t="s">
+      <c r="F782" s="54" t="s">
         <v>2843</v>
       </c>
-      <c r="F782" s="54" t="s">
+      <c r="O782" s="55" t="s">
         <v>2844</v>
-      </c>
-      <c r="O782" s="55" t="s">
-        <v>2845</v>
       </c>
     </row>
     <row r="783" spans="2:18" ht="16">
       <c r="B783" s="54" t="s">
+        <v>2845</v>
+      </c>
+      <c r="C783" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E783" s="57" t="s">
         <v>2846</v>
       </c>
-      <c r="C783" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E783" s="57" t="s">
+      <c r="F783" s="54" t="s">
         <v>2847</v>
-      </c>
-      <c r="F783" s="54" t="s">
-        <v>2848</v>
       </c>
       <c r="G783" s="54">
         <v>1588</v>
       </c>
       <c r="O783" s="55" t="s">
+        <v>2848</v>
+      </c>
+      <c r="R783" s="93" t="s">
         <v>2849</v>
-      </c>
-      <c r="R783" s="93" t="s">
-        <v>2850</v>
       </c>
     </row>
     <row r="784" spans="2:18" ht="48">
       <c r="B784" s="94" t="s">
+        <v>2850</v>
+      </c>
+      <c r="C784" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E784" s="29" t="s">
         <v>2851</v>
       </c>
-      <c r="C784" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E784" s="29" t="s">
+      <c r="F784" s="54" t="s">
         <v>2852</v>
       </c>
-      <c r="F784" s="54" t="s">
+      <c r="O784" s="55" t="s">
         <v>2853</v>
-      </c>
-      <c r="O784" s="55" t="s">
-        <v>2854</v>
       </c>
     </row>
     <row r="785" spans="1:18" ht="32">
       <c r="B785" s="54" t="s">
-        <v>2855</v>
+        <v>2854</v>
       </c>
       <c r="C785" s="54" t="s">
         <v>34</v>
@@ -27496,13 +27492,13 @@
         <v>125</v>
       </c>
       <c r="E785" s="94" t="s">
+        <v>2855</v>
+      </c>
+      <c r="F785" s="38" t="s">
         <v>2856</v>
       </c>
-      <c r="F785" s="38" t="s">
+      <c r="O785" s="55" t="s">
         <v>2857</v>
-      </c>
-      <c r="O785" s="55" t="s">
-        <v>2858</v>
       </c>
     </row>
     <row r="786" spans="1:18" ht="32">
@@ -27510,19 +27506,19 @@
         <v>448</v>
       </c>
       <c r="B786" s="54" t="s">
+        <v>2858</v>
+      </c>
+      <c r="C786" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E786" s="29" t="s">
         <v>2859</v>
       </c>
-      <c r="C786" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E786" s="29" t="s">
+      <c r="F786" s="54" t="s">
         <v>2860</v>
       </c>
-      <c r="F786" s="54" t="s">
+      <c r="O786" s="55" t="s">
         <v>2861</v>
-      </c>
-      <c r="O786" s="55" t="s">
-        <v>2862</v>
       </c>
     </row>
     <row r="787" spans="1:18" ht="32">
@@ -27530,24 +27526,24 @@
         <v>454</v>
       </c>
       <c r="B787" s="54" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
       <c r="C787" s="54" t="s">
         <v>34</v>
       </c>
       <c r="E787" s="29" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
       <c r="F787" s="54" t="s">
+        <v>2860</v>
+      </c>
+      <c r="O787" s="55" t="s">
         <v>2861</v>
-      </c>
-      <c r="O787" s="55" t="s">
-        <v>2862</v>
       </c>
     </row>
     <row r="788" spans="1:18" ht="16">
       <c r="B788" s="54" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="C788" s="54" t="s">
         <v>34</v>
@@ -27556,10 +27552,10 @@
         <v>1278</v>
       </c>
       <c r="E788" s="57" t="s">
+        <v>2864</v>
+      </c>
+      <c r="F788" s="54" t="s">
         <v>2865</v>
-      </c>
-      <c r="F788" s="54" t="s">
-        <v>2866</v>
       </c>
       <c r="G788" s="54">
         <v>1592</v>
@@ -27573,7 +27569,7 @@
     </row>
     <row r="789" spans="1:18" ht="48">
       <c r="B789" s="54" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
       <c r="C789" s="54" t="s">
         <v>34</v>
@@ -27582,27 +27578,27 @@
         <v>1278</v>
       </c>
       <c r="E789" s="57" t="s">
+        <v>2867</v>
+      </c>
+      <c r="F789" s="54" t="s">
         <v>2868</v>
       </c>
-      <c r="F789" s="54" t="s">
+      <c r="O789" s="55" t="s">
         <v>2869</v>
-      </c>
-      <c r="O789" s="55" t="s">
-        <v>2870</v>
       </c>
     </row>
     <row r="790" spans="1:18" ht="32">
       <c r="B790" s="54" t="s">
+        <v>2870</v>
+      </c>
+      <c r="C790" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E790" s="57" t="s">
         <v>2871</v>
       </c>
-      <c r="C790" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E790" s="57" t="s">
+      <c r="F790" s="54" t="s">
         <v>2872</v>
-      </c>
-      <c r="F790" s="54" t="s">
-        <v>2873</v>
       </c>
       <c r="G790" s="54">
         <v>1577</v>
@@ -27611,12 +27607,12 @@
         <v>1635</v>
       </c>
       <c r="O790" s="55" t="s">
-        <v>2874</v>
+        <v>2873</v>
       </c>
     </row>
     <row r="791" spans="1:18" ht="64">
       <c r="B791" s="54" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="C791" s="54" t="s">
         <v>34</v>
@@ -27625,21 +27621,21 @@
         <v>125</v>
       </c>
       <c r="E791" s="29" t="s">
+        <v>2875</v>
+      </c>
+      <c r="F791" s="54" t="s">
         <v>2876</v>
       </c>
-      <c r="F791" s="54" t="s">
+      <c r="O791" s="55" t="s">
         <v>2877</v>
       </c>
-      <c r="O791" s="55" t="s">
+      <c r="R791" s="54" t="s">
         <v>2878</v>
-      </c>
-      <c r="R791" s="54" t="s">
-        <v>2879</v>
       </c>
     </row>
     <row r="792" spans="1:18" ht="16">
       <c r="B792" s="54" t="s">
-        <v>2880</v>
+        <v>2879</v>
       </c>
       <c r="C792" s="54" t="s">
         <v>34</v>
@@ -27648,28 +27644,28 @@
         <v>1278</v>
       </c>
       <c r="E792" s="57" t="s">
+        <v>2880</v>
+      </c>
+      <c r="F792" s="54" t="s">
         <v>2881</v>
       </c>
-      <c r="F792" s="54" t="s">
+      <c r="O792" s="55" t="s">
         <v>2882</v>
-      </c>
-      <c r="O792" s="55" t="s">
-        <v>2883</v>
       </c>
     </row>
     <row r="793" spans="1:18" ht="32">
       <c r="A793" s="77"/>
       <c r="B793" s="77" t="s">
+        <v>2883</v>
+      </c>
+      <c r="C793" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E793" s="57" t="s">
         <v>2884</v>
       </c>
-      <c r="C793" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E793" s="57" t="s">
+      <c r="F793" s="54" t="s">
         <v>2885</v>
-      </c>
-      <c r="F793" s="54" t="s">
-        <v>2886</v>
       </c>
       <c r="G793" s="54">
         <v>1591</v>
@@ -27678,13 +27674,13 @@
         <v>1668</v>
       </c>
       <c r="O793" s="55" t="s">
-        <v>2887</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="794" spans="1:18" ht="32">
       <c r="A794" s="77"/>
       <c r="B794" s="81" t="s">
-        <v>2888</v>
+        <v>2887</v>
       </c>
       <c r="C794" s="54" t="s">
         <v>34</v>
@@ -27693,19 +27689,19 @@
         <v>1278</v>
       </c>
       <c r="E794" s="94" t="s">
+        <v>2888</v>
+      </c>
+      <c r="F794" s="54" t="s">
         <v>2889</v>
       </c>
-      <c r="F794" s="54" t="s">
+      <c r="R794" s="95" t="s">
         <v>2890</v>
-      </c>
-      <c r="R794" s="95" t="s">
-        <v>2891</v>
       </c>
     </row>
     <row r="795" spans="1:18" ht="16">
       <c r="A795" s="77"/>
       <c r="B795" s="84" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
       <c r="C795" s="54" t="s">
         <v>34</v>
@@ -27714,42 +27710,42 @@
         <v>1278</v>
       </c>
       <c r="E795" s="29" t="s">
+        <v>2892</v>
+      </c>
+      <c r="F795" s="54" t="s">
         <v>2893</v>
-      </c>
-      <c r="F795" s="54" t="s">
-        <v>2894</v>
       </c>
     </row>
     <row r="796" spans="1:18" ht="80">
       <c r="A796" s="77"/>
       <c r="B796" s="77" t="s">
+        <v>2894</v>
+      </c>
+      <c r="C796" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E796" s="57" t="s">
         <v>2895</v>
-      </c>
-      <c r="C796" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E796" s="57" t="s">
-        <v>2896</v>
       </c>
       <c r="F796" s="54" t="s">
         <v>962</v>
       </c>
       <c r="O796" s="55" t="s">
-        <v>2897</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="797" spans="1:18" ht="80">
       <c r="B797" s="54" t="s">
+        <v>2897</v>
+      </c>
+      <c r="C797" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E797" s="57" t="s">
         <v>2898</v>
       </c>
-      <c r="C797" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E797" s="57" t="s">
+      <c r="F797" s="54" t="s">
         <v>2899</v>
-      </c>
-      <c r="F797" s="54" t="s">
-        <v>2900</v>
       </c>
       <c r="G797" s="54">
         <v>1560</v>
@@ -27758,64 +27754,64 @@
         <v>1636</v>
       </c>
       <c r="O797" s="55" t="s">
+        <v>2900</v>
+      </c>
+      <c r="R797" s="38" t="s">
         <v>2901</v>
-      </c>
-      <c r="R797" s="38" t="s">
-        <v>2902</v>
       </c>
     </row>
     <row r="798" spans="1:18" ht="48">
       <c r="B798" s="54" t="s">
+        <v>2902</v>
+      </c>
+      <c r="C798" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E798" s="85" t="s">
         <v>2903</v>
       </c>
-      <c r="C798" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E798" s="85" t="s">
+      <c r="F798" s="54" t="s">
         <v>2904</v>
       </c>
-      <c r="F798" s="54" t="s">
+      <c r="O798" s="55" t="s">
         <v>2905</v>
       </c>
-      <c r="O798" s="55" t="s">
+      <c r="Q798" s="38" t="s">
         <v>2906</v>
       </c>
-      <c r="Q798" s="38" t="s">
+      <c r="R798" s="75" t="s">
         <v>2907</v>
-      </c>
-      <c r="R798" s="75" t="s">
-        <v>2908</v>
       </c>
     </row>
     <row r="799" spans="1:18" ht="96">
       <c r="B799" s="54" t="s">
+        <v>2908</v>
+      </c>
+      <c r="C799" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E799" s="57" t="s">
         <v>2909</v>
       </c>
-      <c r="C799" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E799" s="57" t="s">
+      <c r="F799" s="54" t="s">
         <v>2910</v>
       </c>
-      <c r="F799" s="54" t="s">
+      <c r="O799" s="55" t="s">
         <v>2911</v>
       </c>
-      <c r="O799" s="55" t="s">
+      <c r="R799" s="75" t="s">
         <v>2912</v>
-      </c>
-      <c r="R799" s="75" t="s">
-        <v>2913</v>
       </c>
     </row>
     <row r="800" spans="1:18" ht="16">
       <c r="B800" s="54" t="s">
+        <v>2913</v>
+      </c>
+      <c r="C800" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E800" s="57" t="s">
         <v>2914</v>
-      </c>
-      <c r="C800" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E800" s="57" t="s">
-        <v>2915</v>
       </c>
       <c r="F800" s="54" t="s">
         <v>1519</v>
@@ -27826,115 +27822,115 @@
     </row>
     <row r="801" spans="2:18" ht="64">
       <c r="B801" s="54" t="s">
+        <v>2915</v>
+      </c>
+      <c r="C801" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E801" s="85" t="s">
         <v>2916</v>
       </c>
-      <c r="C801" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E801" s="85" t="s">
+      <c r="F801" s="54" t="s">
         <v>2917</v>
       </c>
-      <c r="F801" s="54" t="s">
+      <c r="J801" s="54" t="s">
         <v>2918</v>
-      </c>
-      <c r="J801" s="54" t="s">
-        <v>2919</v>
       </c>
       <c r="K801" s="54">
         <v>1638</v>
       </c>
       <c r="O801" s="55" t="s">
+        <v>2919</v>
+      </c>
+      <c r="R801" s="56" t="s">
         <v>2920</v>
-      </c>
-      <c r="R801" s="56" t="s">
-        <v>2921</v>
       </c>
     </row>
     <row r="802" spans="2:18" ht="64">
       <c r="B802" s="54" t="s">
+        <v>2921</v>
+      </c>
+      <c r="C802" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E802" s="57" t="s">
         <v>2922</v>
       </c>
-      <c r="C802" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E802" s="57" t="s">
+      <c r="F802" s="54" t="s">
         <v>2923</v>
       </c>
-      <c r="F802" s="54" t="s">
+      <c r="O802" s="55" t="s">
         <v>2924</v>
-      </c>
-      <c r="O802" s="55" t="s">
-        <v>2925</v>
       </c>
     </row>
     <row r="803" spans="2:18" ht="16">
       <c r="B803" s="54" t="s">
+        <v>2925</v>
+      </c>
+      <c r="C803" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E803" s="57" t="s">
         <v>2926</v>
       </c>
-      <c r="C803" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E803" s="57" t="s">
+      <c r="F803" s="54" t="s">
         <v>2927</v>
-      </c>
-      <c r="F803" s="54" t="s">
-        <v>2928</v>
       </c>
     </row>
     <row r="804" spans="2:18" ht="16">
       <c r="B804" s="54" t="s">
+        <v>2928</v>
+      </c>
+      <c r="C804" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E804" s="57" t="s">
         <v>2929</v>
       </c>
-      <c r="C804" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E804" s="57" t="s">
+      <c r="F804" s="54" t="s">
         <v>2930</v>
       </c>
-      <c r="F804" s="54" t="s">
+      <c r="O804" s="55" t="s">
         <v>2931</v>
-      </c>
-      <c r="O804" s="55" t="s">
-        <v>2932</v>
       </c>
     </row>
     <row r="805" spans="2:18" ht="32">
       <c r="B805" s="54" t="s">
+        <v>2932</v>
+      </c>
+      <c r="C805" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E805" s="99" t="s">
         <v>2933</v>
-      </c>
-      <c r="C805" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E805" s="99" t="s">
-        <v>2934</v>
       </c>
       <c r="F805" s="54" t="s">
         <v>408</v>
       </c>
       <c r="O805" s="55" t="s">
-        <v>2935</v>
+        <v>2934</v>
       </c>
     </row>
     <row r="806" spans="2:18" ht="16">
       <c r="B806" s="54" t="s">
+        <v>2935</v>
+      </c>
+      <c r="C806" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E806" s="57" t="s">
         <v>2936</v>
       </c>
-      <c r="C806" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E806" s="57" t="s">
+      <c r="F806" s="54" t="s">
         <v>2937</v>
       </c>
-      <c r="F806" s="54" t="s">
+      <c r="O806" s="55" t="s">
         <v>2938</v>
-      </c>
-      <c r="O806" s="55" t="s">
-        <v>2939</v>
       </c>
     </row>
     <row r="807" spans="2:18" ht="48">
       <c r="B807" s="54" t="s">
-        <v>2940</v>
+        <v>2939</v>
       </c>
       <c r="C807" s="54" t="s">
         <v>34</v>
@@ -27943,10 +27939,10 @@
         <v>1651</v>
       </c>
       <c r="E807" s="57" t="s">
+        <v>2940</v>
+      </c>
+      <c r="F807" s="54" t="s">
         <v>2941</v>
-      </c>
-      <c r="F807" s="54" t="s">
-        <v>2942</v>
       </c>
       <c r="G807" s="54">
         <v>1583</v>
@@ -27955,12 +27951,12 @@
         <v>1641</v>
       </c>
       <c r="O807" s="55" t="s">
-        <v>2943</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="808" spans="2:18" ht="48">
       <c r="B808" s="54" t="s">
-        <v>2944</v>
+        <v>2943</v>
       </c>
       <c r="C808" s="54" t="s">
         <v>34</v>
@@ -27969,10 +27965,10 @@
         <v>1278</v>
       </c>
       <c r="E808" s="90" t="s">
+        <v>2944</v>
+      </c>
+      <c r="F808" s="54" t="s">
         <v>2945</v>
-      </c>
-      <c r="F808" s="54" t="s">
-        <v>2946</v>
       </c>
       <c r="G808" s="54">
         <v>1603</v>
@@ -27981,12 +27977,12 @@
         <v>1665</v>
       </c>
       <c r="O808" s="55" t="s">
-        <v>2947</v>
+        <v>2946</v>
       </c>
     </row>
     <row r="809" spans="2:18" ht="16">
       <c r="B809" s="54" t="s">
-        <v>2948</v>
+        <v>2947</v>
       </c>
       <c r="C809" s="54" t="s">
         <v>34</v>
@@ -27995,47 +27991,47 @@
         <v>566</v>
       </c>
       <c r="F809" s="54" t="s">
+        <v>2948</v>
+      </c>
+      <c r="O809" s="55" t="s">
         <v>2949</v>
-      </c>
-      <c r="O809" s="55" t="s">
-        <v>2950</v>
       </c>
     </row>
     <row r="810" spans="2:18" ht="48">
       <c r="B810" s="85" t="s">
+        <v>2950</v>
+      </c>
+      <c r="C810" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E810" s="57" t="s">
+        <v>2950</v>
+      </c>
+      <c r="F810" s="54" t="s">
         <v>2951</v>
       </c>
-      <c r="C810" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E810" s="57" t="s">
-        <v>2951</v>
-      </c>
-      <c r="F810" s="54" t="s">
+      <c r="O810" s="55" t="s">
         <v>2952</v>
       </c>
-      <c r="O810" s="55" t="s">
+      <c r="Q810" s="38" t="s">
         <v>2953</v>
       </c>
-      <c r="Q810" s="38" t="s">
+      <c r="R810" s="56" t="s">
         <v>2954</v>
-      </c>
-      <c r="R810" s="56" t="s">
-        <v>2955</v>
       </c>
     </row>
     <row r="811" spans="2:18" ht="48">
       <c r="B811" s="54" t="s">
+        <v>2955</v>
+      </c>
+      <c r="C811" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E811" s="57" t="s">
         <v>2956</v>
       </c>
-      <c r="C811" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E811" s="57" t="s">
+      <c r="F811" s="54" t="s">
         <v>2957</v>
-      </c>
-      <c r="F811" s="54" t="s">
-        <v>2958</v>
       </c>
       <c r="G811" s="54">
         <v>1564</v>
@@ -28044,24 +28040,24 @@
         <v>1641</v>
       </c>
       <c r="O811" s="55" t="s">
+        <v>2958</v>
+      </c>
+      <c r="R811" s="75" t="s">
         <v>2959</v>
-      </c>
-      <c r="R811" s="75" t="s">
-        <v>2960</v>
       </c>
     </row>
     <row r="812" spans="2:18" ht="48">
       <c r="B812" s="54" t="s">
+        <v>2960</v>
+      </c>
+      <c r="C812" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E812" s="80" t="s">
         <v>2961</v>
       </c>
-      <c r="C812" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E812" s="80" t="s">
+      <c r="F812" s="54" t="s">
         <v>2962</v>
-      </c>
-      <c r="F812" s="54" t="s">
-        <v>2963</v>
       </c>
       <c r="G812" s="54">
         <v>1555</v>
@@ -28070,15 +28066,15 @@
         <v>1634</v>
       </c>
       <c r="O812" s="55" t="s">
+        <v>2963</v>
+      </c>
+      <c r="R812" s="96" t="s">
         <v>2964</v>
-      </c>
-      <c r="R812" s="96" t="s">
-        <v>2965</v>
       </c>
     </row>
     <row r="813" spans="2:18" ht="144">
       <c r="B813" s="54" t="s">
-        <v>2966</v>
+        <v>2965</v>
       </c>
       <c r="C813" s="54" t="s">
         <v>34</v>
@@ -28087,33 +28083,33 @@
         <v>1278</v>
       </c>
       <c r="E813" s="57" t="s">
+        <v>2966</v>
+      </c>
+      <c r="F813" s="54" t="s">
         <v>2967</v>
       </c>
-      <c r="F813" s="54" t="s">
+      <c r="O813" s="55" t="s">
         <v>2968</v>
       </c>
-      <c r="O813" s="55" t="s">
+      <c r="P813" s="54" t="s">
         <v>2969</v>
       </c>
-      <c r="P813" s="54" t="s">
-        <v>2970</v>
-      </c>
       <c r="R813" s="96" t="s">
-        <v>2965</v>
+        <v>2964</v>
       </c>
     </row>
     <row r="814" spans="2:18" ht="51">
       <c r="B814" s="54" t="s">
+        <v>2970</v>
+      </c>
+      <c r="C814" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E814" s="57" t="s">
         <v>2971</v>
       </c>
-      <c r="C814" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E814" s="57" t="s">
+      <c r="F814" s="54" t="s">
         <v>2972</v>
-      </c>
-      <c r="F814" s="54" t="s">
-        <v>2973</v>
       </c>
       <c r="G814" s="54">
         <v>1604</v>
@@ -28122,15 +28118,15 @@
         <v>1622</v>
       </c>
       <c r="O814" s="108" t="s">
+        <v>2973</v>
+      </c>
+      <c r="R814" s="83" t="s">
         <v>2974</v>
-      </c>
-      <c r="R814" s="83" t="s">
-        <v>2975</v>
       </c>
     </row>
     <row r="815" spans="2:18" ht="16">
       <c r="B815" s="54" t="s">
-        <v>2976</v>
+        <v>2975</v>
       </c>
       <c r="C815" s="54" t="s">
         <v>34</v>
@@ -28139,24 +28135,24 @@
         <v>1278</v>
       </c>
       <c r="E815" s="57" t="s">
+        <v>2976</v>
+      </c>
+      <c r="F815" s="54" t="s">
         <v>2977</v>
       </c>
-      <c r="F815" s="54" t="s">
+      <c r="J815" s="54" t="s">
         <v>2978</v>
-      </c>
-      <c r="J815" s="54" t="s">
-        <v>2979</v>
       </c>
       <c r="K815" s="54">
         <v>1639</v>
       </c>
       <c r="O815" s="85" t="s">
-        <v>2980</v>
+        <v>2979</v>
       </c>
     </row>
     <row r="816" spans="2:18" ht="64">
       <c r="B816" s="54" t="s">
-        <v>2981</v>
+        <v>2980</v>
       </c>
       <c r="C816" s="54" t="s">
         <v>34</v>
@@ -28165,10 +28161,10 @@
         <v>1278</v>
       </c>
       <c r="E816" s="57" t="s">
+        <v>2981</v>
+      </c>
+      <c r="F816" s="54" t="s">
         <v>2982</v>
-      </c>
-      <c r="F816" s="54" t="s">
-        <v>2983</v>
       </c>
       <c r="G816" s="54">
         <v>1586</v>
@@ -28177,24 +28173,24 @@
         <v>1659</v>
       </c>
       <c r="O816" s="55" t="s">
+        <v>2983</v>
+      </c>
+      <c r="R816" s="75" t="s">
         <v>2984</v>
-      </c>
-      <c r="R816" s="75" t="s">
-        <v>2985</v>
       </c>
     </row>
     <row r="817" spans="2:18" ht="80">
       <c r="B817" s="80" t="s">
+        <v>2985</v>
+      </c>
+      <c r="C817" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E817" s="80" t="s">
         <v>2986</v>
       </c>
-      <c r="C817" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E817" s="80" t="s">
+      <c r="F817" s="54" t="s">
         <v>2987</v>
-      </c>
-      <c r="F817" s="54" t="s">
-        <v>2988</v>
       </c>
       <c r="J817" s="54">
         <v>1555</v>
@@ -28203,21 +28199,21 @@
         <v>1626</v>
       </c>
       <c r="O817" s="55" t="s">
-        <v>2989</v>
+        <v>2988</v>
       </c>
     </row>
     <row r="818" spans="2:18" ht="80">
       <c r="B818" s="80" t="s">
+        <v>2989</v>
+      </c>
+      <c r="C818" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E818" s="57" t="s">
         <v>2990</v>
       </c>
-      <c r="C818" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E818" s="57" t="s">
+      <c r="F818" s="54" t="s">
         <v>2991</v>
-      </c>
-      <c r="F818" s="54" t="s">
-        <v>2992</v>
       </c>
       <c r="G818" s="54">
         <v>1585</v>
@@ -28226,44 +28222,44 @@
         <v>1654</v>
       </c>
       <c r="O818" s="55" t="s">
+        <v>2992</v>
+      </c>
+      <c r="R818" s="83" t="s">
         <v>2993</v>
-      </c>
-      <c r="R818" s="83" t="s">
-        <v>2994</v>
       </c>
     </row>
     <row r="819" spans="2:18" ht="32">
       <c r="B819" s="54" t="s">
+        <v>2994</v>
+      </c>
+      <c r="C819" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E819" s="57" t="s">
+        <v>2994</v>
+      </c>
+      <c r="F819" s="54" t="s">
         <v>2995</v>
-      </c>
-      <c r="C819" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E819" s="57" t="s">
-        <v>2995</v>
-      </c>
-      <c r="F819" s="54" t="s">
-        <v>2996</v>
       </c>
       <c r="K819" s="54">
         <v>1622</v>
       </c>
       <c r="O819" s="55" t="s">
-        <v>2997</v>
+        <v>2996</v>
       </c>
     </row>
     <row r="820" spans="2:18" ht="48">
       <c r="B820" s="54" t="s">
+        <v>2997</v>
+      </c>
+      <c r="C820" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E820" s="85" t="s">
         <v>2998</v>
       </c>
-      <c r="C820" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E820" s="85" t="s">
+      <c r="F820" s="54" t="s">
         <v>2999</v>
-      </c>
-      <c r="F820" s="54" t="s">
-        <v>3000</v>
       </c>
       <c r="G820" s="54">
         <v>1559</v>
@@ -28272,81 +28268,81 @@
         <v>1631</v>
       </c>
       <c r="O820" s="55" t="s">
+        <v>3000</v>
+      </c>
+      <c r="R820" s="75" t="s">
         <v>3001</v>
-      </c>
-      <c r="R820" s="75" t="s">
-        <v>3002</v>
       </c>
     </row>
     <row r="821" spans="2:18" ht="48">
       <c r="B821" s="54" t="s">
+        <v>3005</v>
+      </c>
+      <c r="C821" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E821" s="57" t="s">
         <v>3006</v>
       </c>
-      <c r="C821" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E821" s="57" t="s">
+      <c r="F821" s="54" t="s">
         <v>3007</v>
       </c>
-      <c r="F821" s="54" t="s">
+      <c r="O821" s="55" t="s">
         <v>3008</v>
       </c>
-      <c r="O821" s="55" t="s">
+      <c r="R821" s="56" t="s">
         <v>3009</v>
-      </c>
-      <c r="R821" s="56" t="s">
-        <v>3010</v>
       </c>
     </row>
     <row r="822" spans="2:18" ht="64">
       <c r="B822" s="54" t="s">
+        <v>3010</v>
+      </c>
+      <c r="C822" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E822" s="57" t="s">
         <v>3011</v>
-      </c>
-      <c r="C822" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E822" s="57" t="s">
-        <v>3012</v>
       </c>
       <c r="F822" s="54" t="s">
         <v>527</v>
       </c>
       <c r="O822" s="55" t="s">
+        <v>3012</v>
+      </c>
+      <c r="Q822" s="54" t="s">
         <v>3013</v>
       </c>
-      <c r="Q822" s="54" t="s">
+      <c r="R822" s="75" t="s">
         <v>3014</v>
-      </c>
-      <c r="R822" s="75" t="s">
-        <v>3015</v>
       </c>
     </row>
     <row r="823" spans="2:18" ht="32">
       <c r="B823" s="54" t="s">
+        <v>3015</v>
+      </c>
+      <c r="C823" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E823" s="57" t="s">
         <v>3016</v>
       </c>
-      <c r="C823" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E823" s="57" t="s">
+      <c r="F823" s="54" t="s">
         <v>3017</v>
-      </c>
-      <c r="F823" s="54" t="s">
-        <v>3018</v>
       </c>
       <c r="K823" s="54">
         <v>1628</v>
       </c>
       <c r="O823" s="55" t="s">
+        <v>3018</v>
+      </c>
+      <c r="R823" s="56" t="s">
         <v>3019</v>
-      </c>
-      <c r="R823" s="56" t="s">
-        <v>3020</v>
       </c>
     </row>
     <row r="824" spans="2:18" ht="32">
       <c r="B824" s="77" t="s">
-        <v>3021</v>
+        <v>3020</v>
       </c>
       <c r="C824" s="54" t="s">
         <v>34</v>
@@ -28355,10 +28351,10 @@
         <v>1278</v>
       </c>
       <c r="E824" s="57" t="s">
+        <v>3021</v>
+      </c>
+      <c r="F824" s="54" t="s">
         <v>3022</v>
-      </c>
-      <c r="F824" s="54" t="s">
-        <v>3023</v>
       </c>
       <c r="G824" s="54">
         <v>1602</v>
@@ -28367,15 +28363,15 @@
         <v>1628</v>
       </c>
       <c r="O824" s="55" t="s">
+        <v>3023</v>
+      </c>
+      <c r="R824" s="56" t="s">
         <v>3024</v>
-      </c>
-      <c r="R824" s="56" t="s">
-        <v>3025</v>
       </c>
     </row>
     <row r="825" spans="2:18" ht="96">
       <c r="B825" s="81" t="s">
-        <v>3026</v>
+        <v>3025</v>
       </c>
       <c r="C825" s="54" t="s">
         <v>34</v>
@@ -28384,24 +28380,24 @@
         <v>1278</v>
       </c>
       <c r="E825" s="57" t="s">
+        <v>3026</v>
+      </c>
+      <c r="F825" s="54" t="s">
         <v>3027</v>
       </c>
-      <c r="F825" s="54" t="s">
+      <c r="J825" s="54" t="s">
         <v>3028</v>
-      </c>
-      <c r="J825" s="54" t="s">
-        <v>3029</v>
       </c>
       <c r="K825" s="54">
         <v>1632</v>
       </c>
       <c r="O825" s="55" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="826" spans="2:18" ht="64">
       <c r="B826" s="77" t="s">
-        <v>3031</v>
+        <v>3030</v>
       </c>
       <c r="C826" s="54" t="s">
         <v>34</v>
@@ -28410,10 +28406,10 @@
         <v>1278</v>
       </c>
       <c r="E826" s="57" t="s">
+        <v>3031</v>
+      </c>
+      <c r="F826" s="54" t="s">
         <v>3032</v>
-      </c>
-      <c r="F826" s="54" t="s">
-        <v>3033</v>
       </c>
       <c r="G826" s="54">
         <v>1565</v>
@@ -28422,15 +28418,15 @@
         <v>1631</v>
       </c>
       <c r="O826" s="55" t="s">
+        <v>3033</v>
+      </c>
+      <c r="R826" s="56" t="s">
         <v>3034</v>
-      </c>
-      <c r="R826" s="56" t="s">
-        <v>3035</v>
       </c>
     </row>
     <row r="827" spans="2:18" ht="64">
       <c r="B827" s="77" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="C827" s="54" t="s">
         <v>34</v>
@@ -28439,41 +28435,41 @@
         <v>1278</v>
       </c>
       <c r="E827" s="57" t="s">
+        <v>3036</v>
+      </c>
+      <c r="F827" s="54" t="s">
         <v>3037</v>
-      </c>
-      <c r="F827" s="54" t="s">
-        <v>3038</v>
       </c>
       <c r="K827" s="54">
         <v>1623</v>
       </c>
       <c r="O827" s="55" t="s">
-        <v>3039</v>
+        <v>3038</v>
       </c>
     </row>
     <row r="828" spans="2:18" ht="32">
       <c r="B828" s="77" t="s">
+        <v>3039</v>
+      </c>
+      <c r="C828" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E828" s="85" t="s">
         <v>3040</v>
       </c>
-      <c r="C828" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E828" s="85" t="s">
+      <c r="F828" s="54" t="s">
         <v>3041</v>
       </c>
-      <c r="F828" s="54" t="s">
+      <c r="O828" s="55" t="s">
         <v>3042</v>
       </c>
-      <c r="O828" s="55" t="s">
+      <c r="R828" s="56" t="s">
         <v>3043</v>
-      </c>
-      <c r="R828" s="56" t="s">
-        <v>3044</v>
       </c>
     </row>
     <row r="829" spans="2:18" ht="96">
       <c r="B829" s="77" t="s">
-        <v>3045</v>
+        <v>3044</v>
       </c>
       <c r="C829" s="54" t="s">
         <v>34</v>
@@ -28482,10 +28478,10 @@
         <v>1278</v>
       </c>
       <c r="E829" s="57" t="s">
+        <v>3045</v>
+      </c>
+      <c r="F829" s="54" t="s">
         <v>3046</v>
-      </c>
-      <c r="F829" s="54" t="s">
-        <v>3047</v>
       </c>
       <c r="G829" s="54">
         <v>1588</v>
@@ -28494,21 +28490,21 @@
         <v>1655</v>
       </c>
       <c r="O829" s="55" t="s">
-        <v>3048</v>
+        <v>3047</v>
       </c>
     </row>
     <row r="830" spans="2:18" ht="64">
       <c r="B830" s="77" t="s">
+        <v>3048</v>
+      </c>
+      <c r="C830" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E830" s="57" t="s">
         <v>3049</v>
       </c>
-      <c r="C830" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E830" s="57" t="s">
+      <c r="F830" s="54" t="s">
         <v>3050</v>
-      </c>
-      <c r="F830" s="54" t="s">
-        <v>3051</v>
       </c>
       <c r="G830" s="54">
         <v>1570</v>
@@ -28517,194 +28513,194 @@
         <v>1628</v>
       </c>
       <c r="O830" s="55" t="s">
-        <v>3052</v>
+        <v>3051</v>
       </c>
     </row>
     <row r="831" spans="2:18" ht="32">
       <c r="B831" s="77" t="s">
+        <v>3052</v>
+      </c>
+      <c r="C831" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E831" s="101" t="s">
         <v>3053</v>
       </c>
-      <c r="C831" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E831" s="101" t="s">
+      <c r="F831" s="54" t="s">
         <v>3054</v>
       </c>
-      <c r="F831" s="54" t="s">
+      <c r="O831" s="55" t="s">
         <v>3055</v>
       </c>
-      <c r="O831" s="55" t="s">
+      <c r="R831" s="103" t="s">
         <v>3056</v>
-      </c>
-      <c r="R831" s="103" t="s">
-        <v>3057</v>
       </c>
     </row>
     <row r="832" spans="2:18" ht="64">
       <c r="B832" s="77" t="s">
+        <v>3057</v>
+      </c>
+      <c r="C832" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E832" s="102" t="s">
         <v>3058</v>
       </c>
-      <c r="C832" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E832" s="102" t="s">
+      <c r="F832" s="54" t="s">
         <v>3059</v>
       </c>
-      <c r="F832" s="54" t="s">
+      <c r="O832" s="56" t="s">
         <v>3060</v>
       </c>
-      <c r="O832" s="56" t="s">
+      <c r="Q832" s="54" t="s">
         <v>3061</v>
-      </c>
-      <c r="Q832" s="54" t="s">
-        <v>3062</v>
       </c>
     </row>
     <row r="833" spans="2:18" ht="48">
       <c r="B833" s="77" t="s">
+        <v>3062</v>
+      </c>
+      <c r="C833" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E833" s="57" t="s">
         <v>3063</v>
       </c>
-      <c r="C833" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E833" s="57" t="s">
+      <c r="F833" s="54" t="s">
         <v>3064</v>
       </c>
-      <c r="F833" s="54" t="s">
+      <c r="O833" s="55" t="s">
         <v>3065</v>
-      </c>
-      <c r="O833" s="55" t="s">
-        <v>3066</v>
       </c>
     </row>
     <row r="834" spans="2:18" ht="64">
       <c r="B834" s="77" t="s">
+        <v>3066</v>
+      </c>
+      <c r="C834" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E834" s="57" t="s">
         <v>3067</v>
       </c>
-      <c r="C834" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E834" s="57" t="s">
+      <c r="F834" s="54" t="s">
         <v>3068</v>
       </c>
-      <c r="F834" s="54" t="s">
+      <c r="O834" s="56" t="s">
         <v>3069</v>
       </c>
-      <c r="O834" s="56" t="s">
+      <c r="R834" s="56" t="s">
         <v>3070</v>
-      </c>
-      <c r="R834" s="56" t="s">
-        <v>3071</v>
       </c>
     </row>
     <row r="835" spans="2:18" ht="32">
       <c r="B835" s="77" t="s">
+        <v>3071</v>
+      </c>
+      <c r="C835" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E835" s="57" t="s">
         <v>3072</v>
       </c>
-      <c r="C835" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E835" s="57" t="s">
+      <c r="F835" s="54" t="s">
         <v>3073</v>
       </c>
-      <c r="F835" s="54" t="s">
+      <c r="O835" s="55" t="s">
         <v>3074</v>
-      </c>
-      <c r="O835" s="55" t="s">
-        <v>3075</v>
       </c>
     </row>
     <row r="836" spans="2:18" ht="32">
       <c r="B836" s="77" t="s">
-        <v>3076</v>
+        <v>3075</v>
       </c>
       <c r="C836" s="77" t="s">
         <v>34</v>
       </c>
       <c r="D836" s="87"/>
       <c r="E836" s="78" t="s">
+        <v>3076</v>
+      </c>
+      <c r="F836" s="54" t="s">
         <v>3077</v>
       </c>
-      <c r="F836" s="54" t="s">
+      <c r="O836" s="56" t="s">
         <v>3078</v>
-      </c>
-      <c r="O836" s="56" t="s">
-        <v>3079</v>
       </c>
     </row>
     <row r="837" spans="2:18" ht="48">
       <c r="B837" s="104" t="s">
-        <v>3080</v>
+        <v>3079</v>
       </c>
       <c r="C837" s="77" t="s">
         <v>34</v>
       </c>
       <c r="D837" s="87"/>
       <c r="E837" s="78" t="s">
+        <v>3080</v>
+      </c>
+      <c r="F837" s="54" t="s">
         <v>3081</v>
       </c>
-      <c r="F837" s="54" t="s">
+      <c r="O837" s="97" t="s">
         <v>3082</v>
       </c>
-      <c r="O837" s="97" t="s">
+      <c r="Q837" s="54" t="s">
         <v>3083</v>
-      </c>
-      <c r="Q837" s="54" t="s">
-        <v>3084</v>
       </c>
     </row>
     <row r="838" spans="2:18" ht="16">
       <c r="B838" s="77" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
       <c r="C838" s="77" t="s">
         <v>34</v>
       </c>
       <c r="D838" s="110"/>
       <c r="E838" s="78" t="s">
+        <v>3085</v>
+      </c>
+      <c r="F838" s="54" t="s">
         <v>3086</v>
       </c>
-      <c r="F838" s="54" t="s">
+      <c r="O838" s="55" t="s">
         <v>3087</v>
       </c>
-      <c r="O838" s="55" t="s">
+      <c r="R838" s="56" t="s">
         <v>3088</v>
-      </c>
-      <c r="R838" s="56" t="s">
-        <v>3089</v>
       </c>
     </row>
     <row r="839" spans="2:18" ht="16">
       <c r="B839" s="77" t="s">
-        <v>3090</v>
+        <v>3089</v>
       </c>
       <c r="C839" s="77" t="s">
         <v>34</v>
       </c>
       <c r="D839" s="87"/>
       <c r="E839" s="78" t="s">
+        <v>3090</v>
+      </c>
+      <c r="F839" s="54" t="s">
         <v>3091</v>
       </c>
-      <c r="F839" s="54" t="s">
+      <c r="O839" s="55" t="s">
         <v>3092</v>
-      </c>
-      <c r="O839" s="55" t="s">
-        <v>3093</v>
       </c>
     </row>
     <row r="840" spans="2:18" ht="16">
       <c r="B840" s="84" t="s">
-        <v>3094</v>
+        <v>3093</v>
       </c>
       <c r="C840" s="77" t="s">
         <v>34</v>
       </c>
       <c r="D840" s="87"/>
       <c r="E840" s="78" t="s">
+        <v>3094</v>
+      </c>
+      <c r="F840" s="54" t="s">
         <v>3095</v>
-      </c>
-      <c r="F840" s="54" t="s">
-        <v>3096</v>
       </c>
       <c r="G840" s="54">
         <v>1567</v>
@@ -28713,25 +28709,25 @@
         <v>1641</v>
       </c>
       <c r="O840" s="55" t="s">
+        <v>3096</v>
+      </c>
+      <c r="R840" s="103" t="s">
         <v>3097</v>
-      </c>
-      <c r="R840" s="103" t="s">
-        <v>3098</v>
       </c>
     </row>
     <row r="841" spans="2:18" ht="32">
       <c r="B841" s="84" t="s">
-        <v>3099</v>
+        <v>3098</v>
       </c>
       <c r="C841" s="77" t="s">
         <v>34</v>
       </c>
       <c r="D841" s="87"/>
       <c r="E841" s="104" t="s">
+        <v>3099</v>
+      </c>
+      <c r="F841" s="54" t="s">
         <v>3100</v>
-      </c>
-      <c r="F841" s="54" t="s">
-        <v>3101</v>
       </c>
       <c r="G841" s="54">
         <v>1584</v>
@@ -28740,44 +28736,44 @@
         <v>1664</v>
       </c>
       <c r="O841" s="55" t="s">
+        <v>3101</v>
+      </c>
+      <c r="R841" s="103" t="s">
         <v>3102</v>
-      </c>
-      <c r="R841" s="103" t="s">
-        <v>3103</v>
       </c>
     </row>
     <row r="842" spans="2:18" ht="16">
       <c r="B842" s="77" t="s">
+        <v>3103</v>
+      </c>
+      <c r="C842" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E842" s="105" t="s">
         <v>3104</v>
       </c>
-      <c r="C842" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E842" s="105" t="s">
+      <c r="F842" s="54" t="s">
         <v>3105</v>
       </c>
-      <c r="F842" s="54" t="s">
+      <c r="O842" s="106" t="s">
         <v>3106</v>
-      </c>
-      <c r="O842" s="106" t="s">
-        <v>3107</v>
       </c>
     </row>
     <row r="843" spans="2:18" ht="32">
       <c r="B843" s="77" t="s">
+        <v>3107</v>
+      </c>
+      <c r="C843" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="D843" s="55" t="s">
+        <v>3250</v>
+      </c>
+      <c r="E843" s="57" t="s">
         <v>3108</v>
       </c>
-      <c r="C843" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="D843" s="55" t="s">
-        <v>3251</v>
-      </c>
-      <c r="E843" s="57" t="s">
+      <c r="F843" s="54" t="s">
         <v>3109</v>
-      </c>
-      <c r="F843" s="54" t="s">
-        <v>3110</v>
       </c>
       <c r="G843" s="54">
         <v>1596</v>
@@ -28786,27 +28782,27 @@
         <v>1646</v>
       </c>
       <c r="O843" s="55" t="s">
+        <v>3110</v>
+      </c>
+      <c r="R843" s="56" t="s">
         <v>3111</v>
-      </c>
-      <c r="R843" s="56" t="s">
-        <v>3112</v>
       </c>
     </row>
     <row r="844" spans="2:18" ht="16">
       <c r="B844" s="77" t="s">
+        <v>3112</v>
+      </c>
+      <c r="C844" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="D844" s="55" t="s">
+        <v>3260</v>
+      </c>
+      <c r="E844" s="29" t="s">
         <v>3113</v>
       </c>
-      <c r="C844" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="D844" s="55" t="s">
-        <v>3261</v>
-      </c>
-      <c r="E844" s="29" t="s">
+      <c r="F844" s="54" t="s">
         <v>3114</v>
-      </c>
-      <c r="F844" s="54" t="s">
-        <v>3115</v>
       </c>
       <c r="G844" s="54">
         <v>1594</v>
@@ -28815,15 +28811,15 @@
         <v>1636</v>
       </c>
       <c r="O844" s="105" t="s">
+        <v>3115</v>
+      </c>
+      <c r="R844" s="56" t="s">
         <v>3116</v>
-      </c>
-      <c r="R844" s="56" t="s">
-        <v>3117</v>
       </c>
     </row>
     <row r="845" spans="2:18" ht="32">
       <c r="B845" s="77" t="s">
-        <v>3118</v>
+        <v>3117</v>
       </c>
       <c r="C845" s="54" t="s">
         <v>34</v>
@@ -28832,10 +28828,10 @@
         <v>125</v>
       </c>
       <c r="E845" s="102" t="s">
+        <v>3118</v>
+      </c>
+      <c r="F845" s="54" t="s">
         <v>3119</v>
-      </c>
-      <c r="F845" s="54" t="s">
-        <v>3120</v>
       </c>
       <c r="G845" s="54">
         <v>1595</v>
@@ -28844,64 +28840,64 @@
         <v>1656</v>
       </c>
       <c r="O845" s="55" t="s">
+        <v>3120</v>
+      </c>
+      <c r="R845" s="103" t="s">
         <v>3121</v>
-      </c>
-      <c r="R845" s="103" t="s">
-        <v>3122</v>
       </c>
     </row>
     <row r="846" spans="2:18" ht="32">
       <c r="B846" s="77" t="s">
+        <v>3122</v>
+      </c>
+      <c r="C846" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E846" s="57" t="s">
         <v>3123</v>
       </c>
-      <c r="C846" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E846" s="57" t="s">
+      <c r="F846" s="54" t="s">
         <v>3124</v>
       </c>
-      <c r="F846" s="54" t="s">
+      <c r="O846" s="55" t="s">
         <v>3125</v>
       </c>
-      <c r="O846" s="55" t="s">
+      <c r="R846" s="103" t="s">
         <v>3126</v>
-      </c>
-      <c r="R846" s="103" t="s">
-        <v>3127</v>
       </c>
     </row>
     <row r="847" spans="2:18" ht="80">
       <c r="B847" s="81" t="s">
+        <v>3127</v>
+      </c>
+      <c r="C847" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E847" s="105" t="s">
         <v>3128</v>
       </c>
-      <c r="C847" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E847" s="105" t="s">
+      <c r="F847" s="54" t="s">
         <v>3129</v>
       </c>
-      <c r="F847" s="54" t="s">
+      <c r="O847" s="55" t="s">
         <v>3130</v>
-      </c>
-      <c r="O847" s="55" t="s">
-        <v>3131</v>
       </c>
     </row>
     <row r="848" spans="2:18" ht="32">
       <c r="B848" s="77" t="s">
+        <v>3131</v>
+      </c>
+      <c r="C848" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="D848" s="55" t="s">
         <v>3132</v>
       </c>
-      <c r="C848" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="D848" s="55" t="s">
+      <c r="E848" s="57" t="s">
         <v>3133</v>
       </c>
-      <c r="E848" s="57" t="s">
+      <c r="F848" s="54" t="s">
         <v>3134</v>
-      </c>
-      <c r="F848" s="54" t="s">
-        <v>3135</v>
       </c>
       <c r="J848" s="54">
         <v>1585</v>
@@ -28910,66 +28906,66 @@
         <v>1631</v>
       </c>
       <c r="O848" s="55" t="s">
-        <v>3136</v>
+        <v>3135</v>
       </c>
     </row>
     <row r="849" spans="2:17" ht="32">
       <c r="B849" s="84" t="s">
+        <v>3136</v>
+      </c>
+      <c r="C849" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E849" s="57" t="s">
         <v>3137</v>
       </c>
-      <c r="C849" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E849" s="57" t="s">
+      <c r="F849" s="54" t="s">
         <v>3138</v>
-      </c>
-      <c r="F849" s="54" t="s">
-        <v>3139</v>
       </c>
       <c r="K849" s="54">
         <v>1622</v>
       </c>
       <c r="O849" s="55" t="s">
-        <v>3140</v>
+        <v>3139</v>
       </c>
     </row>
     <row r="850" spans="2:17" ht="32">
       <c r="B850" s="77" t="s">
+        <v>3140</v>
+      </c>
+      <c r="C850" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E850" s="57" t="s">
         <v>3141</v>
       </c>
-      <c r="C850" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E850" s="57" t="s">
+      <c r="F850" s="77" t="s">
         <v>3142</v>
       </c>
-      <c r="F850" s="77" t="s">
+      <c r="O850" s="55" t="s">
         <v>3143</v>
-      </c>
-      <c r="O850" s="55" t="s">
-        <v>3144</v>
       </c>
     </row>
     <row r="851" spans="2:17" ht="16">
       <c r="B851" s="77" t="s">
+        <v>3144</v>
+      </c>
+      <c r="C851" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E851" t="s">
         <v>3145</v>
       </c>
-      <c r="C851" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E851" t="s">
+      <c r="F851" s="77" t="s">
         <v>3146</v>
       </c>
-      <c r="F851" s="77" t="s">
+      <c r="Q851" s="93" t="s">
         <v>3147</v>
-      </c>
-      <c r="Q851" s="93" t="s">
-        <v>3148</v>
       </c>
     </row>
     <row r="852" spans="2:17" ht="48">
       <c r="B852" s="84" t="s">
-        <v>3243</v>
+        <v>3242</v>
       </c>
       <c r="C852" s="54" t="s">
         <v>34</v>
@@ -28978,10 +28974,10 @@
         <v>125</v>
       </c>
       <c r="E852" s="57" t="s">
+        <v>3243</v>
+      </c>
+      <c r="F852" s="109" t="s">
         <v>3244</v>
-      </c>
-      <c r="F852" s="109" t="s">
-        <v>3245</v>
       </c>
       <c r="G852" s="54">
         <v>1583</v>
@@ -28990,7 +28986,7 @@
         <v>1640</v>
       </c>
       <c r="O852" s="55" t="s">
-        <v>3246</v>
+        <v>3245</v>
       </c>
     </row>
   </sheetData>
@@ -29184,10 +29180,10 @@
   <sheetData>
     <row r="1" spans="1:1012" s="8" customFormat="1" ht="45.75" customHeight="1">
       <c r="A1" s="22" t="s">
+        <v>3148</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>3149</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3150</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>5</v>
@@ -29223,15 +29219,15 @@
         <v>15</v>
       </c>
       <c r="N1" s="7" t="s">
+        <v>3150</v>
+      </c>
+      <c r="O1" s="7" t="s">
         <v>3151</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>3152</v>
       </c>
     </row>
     <row r="2" spans="1:1012" s="17" customFormat="1" ht="54.75" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>3153</v>
+        <v>3152</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>21</v>
@@ -29252,7 +29248,7 @@
         <v>26</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>3154</v>
+        <v>3153</v>
       </c>
       <c r="I2" s="13" t="s">
         <v>24</v>
@@ -29279,7 +29275,7 @@
     <row r="3" spans="1:1012" s="23" customFormat="1">
       <c r="A3"/>
       <c r="B3" s="18" t="s">
-        <v>3155</v>
+        <v>3154</v>
       </c>
       <c r="C3" s="19"/>
       <c r="D3"/>
@@ -30294,35 +30290,35 @@
     </row>
     <row r="4" spans="1:1012">
       <c r="A4" s="18" t="s">
+        <v>3155</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>3156</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="C4" s="19" t="s">
         <v>3157</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>3158</v>
       </c>
     </row>
     <row r="5" spans="1:1012">
       <c r="A5" s="18" t="s">
-        <v>3156</v>
+        <v>3155</v>
       </c>
       <c r="B5" s="18" t="s">
+        <v>3158</v>
+      </c>
+      <c r="C5" s="19" t="s">
         <v>3159</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>3160</v>
       </c>
     </row>
     <row r="6" spans="1:1012">
       <c r="A6" t="s">
+        <v>3160</v>
+      </c>
+      <c r="B6" s="20" t="s">
         <v>3161</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="C6" t="s">
         <v>3162</v>
-      </c>
-      <c r="C6" t="s">
-        <v>3163</v>
       </c>
     </row>
     <row r="7" spans="1:1012" ht="31.5" customHeight="1">
@@ -30335,10 +30331,10 @@
     </row>
     <row r="9" spans="1:1012" ht="93.75" customHeight="1">
       <c r="A9" t="s">
+        <v>3163</v>
+      </c>
+      <c r="B9" s="21" t="s">
         <v>3164</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>3165</v>
       </c>
     </row>
     <row r="10" spans="1:1012">
@@ -30372,10 +30368,10 @@
   <sheetData>
     <row r="1" spans="1:7" s="8" customFormat="1" ht="45.75" customHeight="1">
       <c r="A1" s="22" t="s">
+        <v>3148</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>3149</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3150</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>5</v>
@@ -30387,15 +30383,15 @@
         <v>15</v>
       </c>
       <c r="F1" s="7" t="s">
+        <v>3150</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>3151</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>3152</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="17" customFormat="1" ht="54.75" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>3153</v>
+        <v>3152</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="11" t="s">
@@ -30416,61 +30412,61 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
+        <v>3165</v>
+      </c>
+      <c r="B3" t="s">
         <v>3166</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3167</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>3166</v>
+        <v>3165</v>
       </c>
       <c r="B4" t="s">
-        <v>3168</v>
+        <v>3167</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>3166</v>
+        <v>3165</v>
       </c>
       <c r="B5" t="s">
-        <v>3169</v>
+        <v>3168</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>3166</v>
+        <v>3165</v>
       </c>
       <c r="B6" t="s">
-        <v>3170</v>
+        <v>3169</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
+        <v>3170</v>
+      </c>
+      <c r="B7" t="s">
         <v>3171</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3172</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
+        <v>3172</v>
+      </c>
+      <c r="B8" t="s">
         <v>3173</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>3174</v>
-      </c>
-      <c r="C8" t="s">
-        <v>3175</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
+        <v>3175</v>
+      </c>
+      <c r="B9" t="s">
         <v>3176</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3177</v>
       </c>
     </row>
   </sheetData>
@@ -30502,12 +30498,12 @@
         <v>34</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>3178</v>
+        <v>3177</v>
       </c>
       <c r="C1" s="26"/>
       <c r="D1" s="40"/>
       <c r="E1" s="27" t="s">
-        <v>3179</v>
+        <v>3178</v>
       </c>
       <c r="F1" s="26"/>
       <c r="G1" s="26"/>
@@ -30520,7 +30516,7 @@
       <c r="N1" s="25"/>
       <c r="O1" s="26"/>
       <c r="P1" s="27" t="s">
-        <v>3180</v>
+        <v>3179</v>
       </c>
       <c r="Q1" s="34"/>
       <c r="R1" s="26"/>
@@ -30531,12 +30527,12 @@
         <v>34</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>3181</v>
+        <v>3180</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="35"/>
       <c r="E2" s="26" t="s">
-        <v>3182</v>
+        <v>3181</v>
       </c>
       <c r="F2" s="26">
         <v>1544</v>
@@ -30562,12 +30558,12 @@
         <v>34</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="C3" s="42"/>
       <c r="D3" s="29"/>
       <c r="E3" s="26" t="s">
-        <v>3184</v>
+        <v>3183</v>
       </c>
       <c r="F3" s="26"/>
       <c r="G3" s="26"/>
@@ -30580,7 +30576,7 @@
       <c r="L3" s="26"/>
       <c r="M3" s="26"/>
       <c r="N3" s="28" t="s">
-        <v>3185</v>
+        <v>3184</v>
       </c>
       <c r="P3" s="26"/>
       <c r="Q3" s="34"/>
@@ -30613,12 +30609,12 @@
         <v>34</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>3186</v>
+        <v>3185</v>
       </c>
       <c r="C1" s="26"/>
       <c r="D1" s="39"/>
       <c r="E1" s="29" t="s">
-        <v>3187</v>
+        <v>3186</v>
       </c>
       <c r="F1" s="29">
         <v>1562</v>
@@ -30638,7 +30634,7 @@
         <v>732</v>
       </c>
       <c r="Q1" s="36" t="s">
-        <v>3188</v>
+        <v>3187</v>
       </c>
       <c r="R1" s="26"/>
       <c r="S1" s="26"/>
@@ -30648,12 +30644,12 @@
         <v>34</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>3189</v>
+        <v>3188</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="39"/>
       <c r="E2" s="29" t="s">
-        <v>3190</v>
+        <v>3189</v>
       </c>
       <c r="F2" s="29">
         <v>1599</v>
@@ -30671,7 +30667,7 @@
       <c r="O2" s="29"/>
       <c r="P2" s="29"/>
       <c r="Q2" s="35" t="s">
-        <v>3191</v>
+        <v>3190</v>
       </c>
       <c r="R2" s="26"/>
       <c r="S2" s="26"/>
@@ -30681,12 +30677,12 @@
         <v>34</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>3192</v>
+        <v>3191</v>
       </c>
       <c r="C3" s="26"/>
       <c r="D3" s="39"/>
       <c r="E3" s="26" t="s">
-        <v>3193</v>
+        <v>3192</v>
       </c>
       <c r="F3" s="26">
         <v>1578</v>
@@ -30706,7 +30702,7 @@
         <v>732</v>
       </c>
       <c r="Q3" s="36" t="s">
-        <v>3194</v>
+        <v>3193</v>
       </c>
       <c r="R3" s="26"/>
       <c r="S3" s="26"/>
@@ -30716,14 +30712,14 @@
         <v>34</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>3195</v>
+        <v>3194</v>
       </c>
       <c r="C4" s="26"/>
       <c r="D4" s="39" t="s">
+        <v>3195</v>
+      </c>
+      <c r="E4" s="26" t="s">
         <v>3196</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>3197</v>
       </c>
       <c r="F4" s="26"/>
       <c r="G4" s="26"/>
@@ -30745,12 +30741,12 @@
         <v>34</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>3198</v>
+        <v>3197</v>
       </c>
       <c r="C5" s="29"/>
       <c r="D5" s="39"/>
       <c r="E5" s="29" t="s">
-        <v>3199</v>
+        <v>3198</v>
       </c>
       <c r="F5" s="29">
         <v>1572</v>
@@ -30770,7 +30766,7 @@
         <v>732</v>
       </c>
       <c r="Q5" s="37" t="s">
-        <v>3200</v>
+        <v>3199</v>
       </c>
       <c r="R5" s="31"/>
       <c r="S5" s="31"/>
@@ -30780,14 +30776,14 @@
         <v>34</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>3201</v>
+        <v>3200</v>
       </c>
       <c r="C6" s="26"/>
       <c r="D6" s="39" t="s">
+        <v>3201</v>
+      </c>
+      <c r="E6" s="26" t="s">
         <v>3202</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>3203</v>
       </c>
       <c r="F6" s="26">
         <v>1596</v>
@@ -30804,10 +30800,10 @@
       <c r="N6" s="25"/>
       <c r="O6" s="26"/>
       <c r="P6" s="26" t="s">
+        <v>3203</v>
+      </c>
+      <c r="Q6" s="36" t="s">
         <v>3204</v>
-      </c>
-      <c r="Q6" s="36" t="s">
-        <v>3205</v>
       </c>
       <c r="R6" s="26"/>
       <c r="S6" s="26"/>
@@ -30817,14 +30813,14 @@
         <v>34</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>3206</v>
+        <v>3205</v>
       </c>
       <c r="C7" s="26"/>
       <c r="D7" s="39" t="s">
+        <v>3206</v>
+      </c>
+      <c r="E7" s="26" t="s">
         <v>3207</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>3208</v>
       </c>
       <c r="F7" s="26">
         <v>1574</v>
@@ -30841,10 +30837,10 @@
       <c r="N7" s="25"/>
       <c r="O7" s="26"/>
       <c r="P7" s="29" t="s">
+        <v>3208</v>
+      </c>
+      <c r="Q7" s="36" t="s">
         <v>3209</v>
-      </c>
-      <c r="Q7" s="36" t="s">
-        <v>3210</v>
       </c>
       <c r="R7" s="26"/>
       <c r="S7" s="26"/>
@@ -30854,12 +30850,12 @@
         <v>34</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>3211</v>
+        <v>3210</v>
       </c>
       <c r="C9" s="29"/>
       <c r="D9" s="39"/>
       <c r="E9" s="26" t="s">
-        <v>3212</v>
+        <v>3211</v>
       </c>
       <c r="F9" s="26">
         <v>1580</v>
@@ -30877,7 +30873,7 @@
       <c r="O9" s="26"/>
       <c r="P9" s="29"/>
       <c r="Q9" s="35" t="s">
-        <v>3213</v>
+        <v>3212</v>
       </c>
       <c r="R9" s="29"/>
       <c r="S9" s="26"/>
@@ -30887,12 +30883,12 @@
         <v>34</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>3214</v>
+        <v>3213</v>
       </c>
       <c r="C10" s="26"/>
       <c r="D10" s="39"/>
       <c r="E10" s="26" t="s">
-        <v>3215</v>
+        <v>3214</v>
       </c>
       <c r="F10" s="26"/>
       <c r="G10" s="26"/>
@@ -30904,7 +30900,7 @@
       <c r="M10" s="26"/>
       <c r="N10" s="25"/>
       <c r="Q10" s="26" t="s">
-        <v>3216</v>
+        <v>3215</v>
       </c>
       <c r="R10" s="26"/>
       <c r="S10" s="26"/>
@@ -30914,11 +30910,11 @@
         <v>34</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>3217</v>
+        <v>3216</v>
       </c>
       <c r="C11" s="29"/>
       <c r="D11" s="39" t="s">
-        <v>3218</v>
+        <v>3217</v>
       </c>
       <c r="E11" s="26"/>
       <c r="F11" s="26"/>
@@ -30941,12 +30937,12 @@
         <v>34</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>3219</v>
+        <v>3218</v>
       </c>
       <c r="C12" s="26"/>
       <c r="D12" s="39"/>
       <c r="E12" s="26" t="s">
-        <v>3220</v>
+        <v>3219</v>
       </c>
       <c r="F12" s="26"/>
       <c r="G12" s="26"/>
@@ -30960,7 +30956,7 @@
       <c r="O12" s="26"/>
       <c r="P12" s="26"/>
       <c r="Q12" s="34" t="s">
-        <v>3221</v>
+        <v>3220</v>
       </c>
       <c r="R12" s="26"/>
       <c r="S12" s="26"/>
@@ -30970,7 +30966,7 @@
         <v>34</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>3222</v>
+        <v>3221</v>
       </c>
       <c r="C13" s="26"/>
       <c r="D13" s="39"/>
@@ -30999,14 +30995,14 @@
         <v>34</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>3223</v>
+        <v>3222</v>
       </c>
       <c r="C14" s="29"/>
       <c r="D14" s="39" t="s">
+        <v>3223</v>
+      </c>
+      <c r="E14" s="33" t="s">
         <v>3224</v>
-      </c>
-      <c r="E14" s="33" t="s">
-        <v>3225</v>
       </c>
       <c r="F14" s="26">
         <v>1574</v>
@@ -31024,7 +31020,7 @@
       <c r="O14" s="26"/>
       <c r="P14" s="26"/>
       <c r="Q14" s="36" t="s">
-        <v>3226</v>
+        <v>3225</v>
       </c>
       <c r="R14" s="26"/>
       <c r="S14" s="26"/>
@@ -31034,14 +31030,14 @@
         <v>34</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>3227</v>
+        <v>3226</v>
       </c>
       <c r="C15" s="29"/>
       <c r="D15" s="39" t="s">
+        <v>3227</v>
+      </c>
+      <c r="E15" s="26" t="s">
         <v>3228</v>
-      </c>
-      <c r="E15" s="26" t="s">
-        <v>3229</v>
       </c>
       <c r="F15" s="26"/>
       <c r="G15" s="26"/>
@@ -31059,7 +31055,7 @@
       <c r="O15" s="26"/>
       <c r="P15" s="26"/>
       <c r="Q15" s="36" t="s">
-        <v>3230</v>
+        <v>3229</v>
       </c>
       <c r="R15" s="26"/>
       <c r="S15" s="26"/>
@@ -31069,11 +31065,11 @@
         <v>34</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>3231</v>
+        <v>3230</v>
       </c>
       <c r="D16" s="39"/>
       <c r="E16" s="27" t="s">
-        <v>3232</v>
+        <v>3231</v>
       </c>
       <c r="F16" s="26">
         <v>1593</v>
@@ -31083,21 +31079,21 @@
       </c>
       <c r="N16" s="25"/>
       <c r="Q16" s="34" t="s">
-        <v>3233</v>
+        <v>3232</v>
       </c>
     </row>
     <row r="18" spans="1:17" s="38" customFormat="1">
       <c r="A18" s="38" t="s">
+        <v>3233</v>
+      </c>
+      <c r="B18" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="41" t="s">
         <v>3234</v>
       </c>
-      <c r="B18" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="41" t="s">
+      <c r="E18" s="38" t="s">
         <v>3235</v>
-      </c>
-      <c r="E18" s="38" t="s">
-        <v>3236</v>
       </c>
       <c r="F18" s="38">
         <v>1566</v>
@@ -31107,21 +31103,21 @@
       </c>
       <c r="N18" s="52"/>
       <c r="Q18" s="66" t="s">
-        <v>3237</v>
+        <v>3236</v>
       </c>
     </row>
     <row r="19" spans="1:17" s="38" customFormat="1">
       <c r="A19" s="38" t="s">
+        <v>3237</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="41" t="s">
         <v>3238</v>
       </c>
-      <c r="B19" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="41" t="s">
+      <c r="E19" s="38" t="s">
         <v>3239</v>
-      </c>
-      <c r="E19" s="38" t="s">
-        <v>3240</v>
       </c>
       <c r="F19" s="38">
         <v>1598</v>
@@ -31132,7 +31128,7 @@
       <c r="N19" s="52"/>
       <c r="P19" s="65"/>
       <c r="Q19" s="38" t="s">
-        <v>3241</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -31143,7 +31139,7 @@
         <v>34</v>
       </c>
       <c r="D20" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
   </sheetData>

--- a/ner/specs/persons.xlsx
+++ b/ner/specs/persons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/me/gitlab.huc.knaw.nl/suriano/letters/datasource/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8C1F7A-0046-8C40-AC53-FD0F3117FFB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77A385C-C7C0-2C47-810F-638E93279E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33600" yWindow="520" windowWidth="33560" windowHeight="37260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
